--- a/Modulo5/src/out/info_estados/Mississippi.xlsx
+++ b/Modulo5/src/out/info_estados/Mississippi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="109">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -332,6 +332,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>M</t>
@@ -770,14 +776,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>106</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>439</v>
       </c>
       <c r="M2">
         <v>28001</v>
@@ -814,14 +820,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>106</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3014</v>
       </c>
       <c r="M3">
         <v>28001</v>
@@ -858,14 +864,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>107</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>1435</v>
       </c>
       <c r="M4">
         <v>28001</v>
@@ -902,14 +908,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>107</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>301</v>
       </c>
       <c r="M5">
         <v>28001</v>
@@ -946,14 +952,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>107</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="M6">
         <v>28001</v>
@@ -990,14 +996,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>107</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>1018</v>
       </c>
       <c r="M7">
         <v>28001</v>
@@ -1034,14 +1040,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="M8">
         <v>28003</v>
@@ -1078,14 +1084,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>810</v>
       </c>
       <c r="M9">
         <v>28003</v>
@@ -1122,14 +1128,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>2902</v>
       </c>
       <c r="M10">
         <v>28003</v>
@@ -1166,14 +1172,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>416</v>
       </c>
       <c r="M11">
         <v>28003</v>
@@ -1210,14 +1216,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>107</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="M12">
         <v>28003</v>
@@ -1254,14 +1260,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>107</v>
       </c>
       <c r="K13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>2004</v>
       </c>
       <c r="M13">
         <v>28003</v>
@@ -1298,14 +1304,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>106</v>
       </c>
       <c r="K14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="M14">
         <v>28005</v>
@@ -1342,14 +1348,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>106</v>
       </c>
       <c r="K15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>1213</v>
       </c>
       <c r="M15">
         <v>28005</v>
@@ -1386,14 +1392,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>107</v>
       </c>
       <c r="K16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>1179</v>
       </c>
       <c r="M16">
         <v>28005</v>
@@ -1430,14 +1436,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>107</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="M17">
         <v>28005</v>
@@ -1474,14 +1480,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>107</v>
       </c>
       <c r="K18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="M18">
         <v>28005</v>
@@ -1518,14 +1524,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>107</v>
       </c>
       <c r="K19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>849</v>
       </c>
       <c r="M19">
         <v>28005</v>
@@ -1562,14 +1568,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>106</v>
       </c>
       <c r="K20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="M20">
         <v>28007</v>
@@ -1606,14 +1612,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>106</v>
       </c>
       <c r="K21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>1520</v>
       </c>
       <c r="M21">
         <v>28007</v>
@@ -1650,14 +1656,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>107</v>
       </c>
       <c r="K22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>1351</v>
       </c>
       <c r="M22">
         <v>28007</v>
@@ -1694,14 +1700,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>107</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="M23">
         <v>28007</v>
@@ -1738,14 +1744,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>107</v>
       </c>
       <c r="K24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="M24">
         <v>28007</v>
@@ -1782,14 +1788,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>107</v>
       </c>
       <c r="K25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>931</v>
       </c>
       <c r="M25">
         <v>28007</v>
@@ -1826,14 +1832,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>106</v>
       </c>
       <c r="K26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="M26">
         <v>28009</v>
@@ -1870,14 +1876,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>106</v>
       </c>
       <c r="K27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>558</v>
       </c>
       <c r="M27">
         <v>28009</v>
@@ -1914,14 +1920,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>107</v>
       </c>
       <c r="K28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>556</v>
       </c>
       <c r="M28">
         <v>28009</v>
@@ -1958,14 +1964,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>107</v>
       </c>
       <c r="K29" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M29">
         <v>28009</v>
@@ -2002,14 +2008,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>107</v>
       </c>
       <c r="K30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="M30">
         <v>28009</v>
@@ -2046,14 +2052,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>107</v>
       </c>
       <c r="K31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>389</v>
       </c>
       <c r="M31">
         <v>28009</v>
@@ -2090,14 +2096,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>106</v>
       </c>
       <c r="K32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>494</v>
       </c>
       <c r="M32">
         <v>28011</v>
@@ -2134,14 +2140,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>106</v>
       </c>
       <c r="K33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3030</v>
       </c>
       <c r="M33">
         <v>28011</v>
@@ -2178,14 +2184,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>107</v>
       </c>
       <c r="K34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>1396</v>
       </c>
       <c r="M34">
         <v>28011</v>
@@ -2222,14 +2228,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>107</v>
       </c>
       <c r="K35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>379</v>
       </c>
       <c r="M35">
         <v>28011</v>
@@ -2266,14 +2272,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>107</v>
       </c>
       <c r="K36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="M36">
         <v>28011</v>
@@ -2310,14 +2316,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>107</v>
       </c>
       <c r="K37" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>603</v>
       </c>
       <c r="M37">
         <v>28011</v>
@@ -2354,14 +2360,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>106</v>
       </c>
       <c r="K38" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="M38">
         <v>28013</v>
@@ -2398,14 +2404,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>106</v>
       </c>
       <c r="K39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>749</v>
       </c>
       <c r="M39">
         <v>28013</v>
@@ -2442,14 +2448,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>107</v>
       </c>
       <c r="K40" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>1324</v>
       </c>
       <c r="M40">
         <v>28013</v>
@@ -2486,14 +2492,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>107</v>
       </c>
       <c r="K41" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="M41">
         <v>28013</v>
@@ -2530,14 +2536,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>107</v>
       </c>
       <c r="K42" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="M42">
         <v>28013</v>
@@ -2574,14 +2580,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>107</v>
       </c>
       <c r="K43" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>815</v>
       </c>
       <c r="M43">
         <v>28013</v>
@@ -2618,14 +2624,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>106</v>
       </c>
       <c r="K44" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="M44">
         <v>28015</v>
@@ -2662,14 +2668,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>106</v>
       </c>
       <c r="K45" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>829</v>
       </c>
       <c r="M45">
         <v>28015</v>
@@ -2706,14 +2712,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>107</v>
       </c>
       <c r="K46" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>1134</v>
       </c>
       <c r="M46">
         <v>28015</v>
@@ -2750,14 +2756,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>107</v>
       </c>
       <c r="K47" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="M47">
         <v>28015</v>
@@ -2794,14 +2800,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>107</v>
       </c>
       <c r="K48" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="M48">
         <v>28015</v>
@@ -2838,14 +2844,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>107</v>
       </c>
       <c r="K49" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>650</v>
       </c>
       <c r="M49">
         <v>28015</v>
@@ -2882,14 +2888,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>106</v>
       </c>
       <c r="K50" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="M50">
         <v>28017</v>
@@ -2926,14 +2932,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>106</v>
       </c>
       <c r="K51" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>1399</v>
       </c>
       <c r="M51">
         <v>28017</v>
@@ -2970,14 +2976,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>107</v>
       </c>
       <c r="K52" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>1057</v>
       </c>
       <c r="M52">
         <v>28017</v>
@@ -3014,14 +3020,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>107</v>
       </c>
       <c r="K53" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="M53">
         <v>28017</v>
@@ -3058,14 +3064,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>107</v>
       </c>
       <c r="K54" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="M54">
         <v>28017</v>
@@ -3102,14 +3108,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>107</v>
       </c>
       <c r="K55" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>722</v>
       </c>
       <c r="M55">
         <v>28017</v>
@@ -3146,14 +3152,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>106</v>
       </c>
       <c r="K56" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="M56">
         <v>28019</v>
@@ -3190,14 +3196,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>106</v>
       </c>
       <c r="K57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>518</v>
       </c>
       <c r="M57">
         <v>28019</v>
@@ -3234,14 +3240,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>107</v>
       </c>
       <c r="K58" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>766</v>
       </c>
       <c r="M58">
         <v>28019</v>
@@ -3278,14 +3284,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>107</v>
       </c>
       <c r="K59" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="M59">
         <v>28019</v>
@@ -3322,14 +3328,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>107</v>
       </c>
       <c r="K60" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="M60">
         <v>28019</v>
@@ -3366,14 +3372,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>107</v>
       </c>
       <c r="K61" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>622</v>
       </c>
       <c r="M61">
         <v>28019</v>
@@ -3410,14 +3416,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>106</v>
       </c>
       <c r="K62" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="M62">
         <v>28021</v>
@@ -3454,14 +3460,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>106</v>
       </c>
       <c r="K63" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>1412</v>
       </c>
       <c r="M63">
         <v>28021</v>
@@ -3498,14 +3504,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>107</v>
       </c>
       <c r="K64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="M64">
         <v>28021</v>
@@ -3542,14 +3548,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>107</v>
       </c>
       <c r="K65" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M65">
         <v>28021</v>
@@ -3586,14 +3592,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>107</v>
       </c>
       <c r="K66" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M66">
         <v>28021</v>
@@ -3630,14 +3636,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>107</v>
       </c>
       <c r="K67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="M67">
         <v>28021</v>
@@ -3674,14 +3680,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>106</v>
       </c>
       <c r="K68" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="M68">
         <v>28023</v>
@@ -3718,14 +3724,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>106</v>
       </c>
       <c r="K69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>1045</v>
       </c>
       <c r="M69">
         <v>28023</v>
@@ -3762,14 +3768,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>107</v>
       </c>
       <c r="K70" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>1400</v>
       </c>
       <c r="M70">
         <v>28023</v>
@@ -3806,14 +3812,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>107</v>
       </c>
       <c r="K71" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="M71">
         <v>28023</v>
@@ -3850,14 +3856,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>107</v>
       </c>
       <c r="K72" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="M72">
         <v>28023</v>
@@ -3894,14 +3900,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>107</v>
       </c>
       <c r="K73" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>1073</v>
       </c>
       <c r="M73">
         <v>28023</v>
@@ -3938,14 +3944,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>106</v>
       </c>
       <c r="K74" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>352</v>
       </c>
       <c r="M74">
         <v>28025</v>
@@ -3982,14 +3988,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>106</v>
       </c>
       <c r="K75" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>2373</v>
       </c>
       <c r="M75">
         <v>28025</v>
@@ -4026,14 +4032,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>107</v>
       </c>
       <c r="K76" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>1050</v>
       </c>
       <c r="M76">
         <v>28025</v>
@@ -4070,14 +4076,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>107</v>
       </c>
       <c r="K77" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="M77">
         <v>28025</v>
@@ -4114,14 +4120,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>107</v>
       </c>
       <c r="K78" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="M78">
         <v>28025</v>
@@ -4158,14 +4164,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>107</v>
       </c>
       <c r="K79" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>866</v>
       </c>
       <c r="M79">
         <v>28025</v>
@@ -4202,14 +4208,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>106</v>
       </c>
       <c r="K80" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>443</v>
       </c>
       <c r="M80">
         <v>28027</v>
@@ -4246,14 +4252,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>106</v>
       </c>
       <c r="K81" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>2302</v>
       </c>
       <c r="M81">
         <v>28027</v>
@@ -4290,14 +4296,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>107</v>
       </c>
       <c r="K82" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>599</v>
       </c>
       <c r="M82">
         <v>28027</v>
@@ -4334,14 +4340,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>107</v>
       </c>
       <c r="K83" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="M83">
         <v>28027</v>
@@ -4378,14 +4384,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>107</v>
       </c>
       <c r="K84" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="M84">
         <v>28027</v>
@@ -4422,14 +4428,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>107</v>
       </c>
       <c r="K85" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>282</v>
       </c>
       <c r="M85">
         <v>28027</v>
@@ -4466,14 +4472,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>106</v>
       </c>
       <c r="K86" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>412</v>
       </c>
       <c r="M86">
         <v>28029</v>
@@ -4510,14 +4516,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>106</v>
       </c>
       <c r="K87" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>3374</v>
       </c>
       <c r="M87">
         <v>28029</v>
@@ -4554,14 +4560,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>107</v>
       </c>
       <c r="K88" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>2027</v>
       </c>
       <c r="M88">
         <v>28029</v>
@@ -4598,14 +4604,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>107</v>
       </c>
       <c r="K89" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="M89">
         <v>28029</v>
@@ -4642,14 +4648,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>107</v>
       </c>
       <c r="K90" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="M90">
         <v>28029</v>
@@ -4686,14 +4692,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>107</v>
       </c>
       <c r="K91" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>1148</v>
       </c>
       <c r="M91">
         <v>28029</v>
@@ -4730,14 +4736,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>106</v>
       </c>
       <c r="K92" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="M92">
         <v>28031</v>
@@ -4774,14 +4780,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>106</v>
       </c>
       <c r="K93" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>1357</v>
       </c>
       <c r="M93">
         <v>28031</v>
@@ -4818,14 +4824,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>107</v>
       </c>
       <c r="K94" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>1725</v>
       </c>
       <c r="M94">
         <v>28031</v>
@@ -4862,14 +4868,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>107</v>
       </c>
       <c r="K95" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="M95">
         <v>28031</v>
@@ -4906,14 +4912,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>107</v>
       </c>
       <c r="K96" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="M96">
         <v>28031</v>
@@ -4950,14 +4956,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>107</v>
       </c>
       <c r="K97" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>1091</v>
       </c>
       <c r="M97">
         <v>28031</v>
@@ -4994,14 +5000,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>106</v>
       </c>
       <c r="K98" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>1941</v>
       </c>
       <c r="M98">
         <v>28033</v>
@@ -5038,14 +5044,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>106</v>
       </c>
       <c r="K99" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>5421</v>
       </c>
       <c r="M99">
         <v>28033</v>
@@ -5082,14 +5088,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>107</v>
       </c>
       <c r="K100" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>10508</v>
       </c>
       <c r="M100">
         <v>28033</v>
@@ -5126,14 +5132,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>107</v>
       </c>
       <c r="K101" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>1499</v>
       </c>
       <c r="M101">
         <v>28033</v>
@@ -5170,14 +5176,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>107</v>
       </c>
       <c r="K102" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>1500</v>
       </c>
       <c r="M102">
         <v>28033</v>
@@ -5214,14 +5220,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>107</v>
       </c>
       <c r="K103" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>12301</v>
       </c>
       <c r="M103">
         <v>28033</v>
@@ -5258,14 +5264,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>106</v>
       </c>
       <c r="K104" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>1324</v>
       </c>
       <c r="M104">
         <v>28035</v>
@@ -5302,14 +5308,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>106</v>
       </c>
       <c r="K105" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>3709</v>
       </c>
       <c r="M105">
         <v>28035</v>
@@ -5346,14 +5352,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>107</v>
       </c>
       <c r="K106" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>4268</v>
       </c>
       <c r="M106">
         <v>28035</v>
@@ -5390,14 +5396,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>107</v>
       </c>
       <c r="K107" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>1160</v>
       </c>
       <c r="M107">
         <v>28035</v>
@@ -5434,14 +5440,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>107</v>
       </c>
       <c r="K108" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>501</v>
       </c>
       <c r="M108">
         <v>28035</v>
@@ -5478,14 +5484,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>107</v>
       </c>
       <c r="K109" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>3669</v>
       </c>
       <c r="M109">
         <v>28035</v>
@@ -5522,14 +5528,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>106</v>
       </c>
       <c r="K110" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="M110">
         <v>28037</v>
@@ -5566,14 +5572,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>106</v>
       </c>
       <c r="K111" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>702</v>
       </c>
       <c r="M111">
         <v>28037</v>
@@ -5610,14 +5616,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>107</v>
       </c>
       <c r="K112" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>762</v>
       </c>
       <c r="M112">
         <v>28037</v>
@@ -5654,14 +5660,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>107</v>
       </c>
       <c r="K113" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="M113">
         <v>28037</v>
@@ -5698,14 +5704,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>107</v>
       </c>
       <c r="K114" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="M114">
         <v>28037</v>
@@ -5742,14 +5748,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>107</v>
       </c>
       <c r="K115" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>646</v>
       </c>
       <c r="M115">
         <v>28037</v>
@@ -5786,14 +5792,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>106</v>
       </c>
       <c r="K116" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="M116">
         <v>28039</v>
@@ -5830,14 +5836,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>106</v>
       </c>
       <c r="K117" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>350</v>
       </c>
       <c r="M117">
         <v>28039</v>
@@ -5874,14 +5880,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>107</v>
       </c>
       <c r="K118" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>2246</v>
       </c>
       <c r="M118">
         <v>28039</v>
@@ -5918,14 +5924,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>107</v>
       </c>
       <c r="K119" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="M119">
         <v>28039</v>
@@ -5962,14 +5968,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>107</v>
       </c>
       <c r="K120" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="M120">
         <v>28039</v>
@@ -6006,14 +6012,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>107</v>
       </c>
       <c r="K121" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>1945</v>
       </c>
       <c r="M121">
         <v>28039</v>
@@ -6050,14 +6056,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>106</v>
       </c>
       <c r="K122" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="M122">
         <v>28041</v>
@@ -6094,14 +6100,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>106</v>
       </c>
       <c r="K123" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>375</v>
       </c>
       <c r="M123">
         <v>28041</v>
@@ -6138,14 +6144,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>107</v>
       </c>
       <c r="K124" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>1089</v>
       </c>
       <c r="M124">
         <v>28041</v>
@@ -6182,14 +6188,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>107</v>
       </c>
       <c r="K125" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="M125">
         <v>28041</v>
@@ -6226,14 +6232,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>107</v>
       </c>
       <c r="K126" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="M126">
         <v>28041</v>
@@ -6270,14 +6276,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>107</v>
       </c>
       <c r="K127" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>827</v>
       </c>
       <c r="M127">
         <v>28041</v>
@@ -6314,14 +6320,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>106</v>
       </c>
       <c r="K128" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="M128">
         <v>28043</v>
@@ -6358,14 +6364,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>106</v>
       </c>
       <c r="K129" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>1635</v>
       </c>
       <c r="M129">
         <v>28043</v>
@@ -6402,14 +6408,14 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>3</v>
+      <c r="J130" t="s">
+        <v>107</v>
       </c>
       <c r="K130" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>1728</v>
       </c>
       <c r="M130">
         <v>28043</v>
@@ -6446,14 +6452,14 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>3</v>
+      <c r="J131" t="s">
+        <v>107</v>
       </c>
       <c r="K131" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>215</v>
       </c>
       <c r="M131">
         <v>28043</v>
@@ -6490,14 +6496,14 @@
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>3</v>
+      <c r="J132" t="s">
+        <v>107</v>
       </c>
       <c r="K132" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="M132">
         <v>28043</v>
@@ -6534,14 +6540,14 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>3</v>
+      <c r="J133" t="s">
+        <v>107</v>
       </c>
       <c r="K133" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>961</v>
       </c>
       <c r="M133">
         <v>28043</v>
@@ -6578,14 +6584,14 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>3</v>
+      <c r="J134" t="s">
+        <v>106</v>
       </c>
       <c r="K134" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>532</v>
       </c>
       <c r="M134">
         <v>28045</v>
@@ -6622,14 +6628,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>3</v>
+      <c r="J135" t="s">
+        <v>106</v>
       </c>
       <c r="K135" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>894</v>
       </c>
       <c r="M135">
         <v>28045</v>
@@ -6666,14 +6672,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>3</v>
+      <c r="J136" t="s">
+        <v>107</v>
       </c>
       <c r="K136" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>4148</v>
       </c>
       <c r="M136">
         <v>28045</v>
@@ -6710,14 +6716,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137">
-        <v>3</v>
+      <c r="J137" t="s">
+        <v>107</v>
       </c>
       <c r="K137" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>599</v>
       </c>
       <c r="M137">
         <v>28045</v>
@@ -6754,14 +6760,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>3</v>
+      <c r="J138" t="s">
+        <v>107</v>
       </c>
       <c r="K138" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>355</v>
       </c>
       <c r="M138">
         <v>28045</v>
@@ -6798,14 +6804,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>3</v>
+      <c r="J139" t="s">
+        <v>107</v>
       </c>
       <c r="K139" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>2005</v>
       </c>
       <c r="M139">
         <v>28045</v>
@@ -6842,14 +6848,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>3</v>
+      <c r="J140" t="s">
+        <v>106</v>
       </c>
       <c r="K140" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>2314</v>
       </c>
       <c r="M140">
         <v>28047</v>
@@ -6886,14 +6892,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>3</v>
+      <c r="J141" t="s">
+        <v>106</v>
       </c>
       <c r="K141" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>6887</v>
       </c>
       <c r="M141">
         <v>28047</v>
@@ -6930,14 +6936,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>3</v>
+      <c r="J142" t="s">
+        <v>107</v>
       </c>
       <c r="K142" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>12556</v>
       </c>
       <c r="M142">
         <v>28047</v>
@@ -6974,14 +6980,14 @@
       <c r="I143">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3</v>
+      <c r="J143" t="s">
+        <v>107</v>
       </c>
       <c r="K143" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>2480</v>
       </c>
       <c r="M143">
         <v>28047</v>
@@ -7018,14 +7024,14 @@
       <c r="I144">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>3</v>
+      <c r="J144" t="s">
+        <v>107</v>
       </c>
       <c r="K144" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>1383</v>
       </c>
       <c r="M144">
         <v>28047</v>
@@ -7062,14 +7068,14 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145">
-        <v>3</v>
+      <c r="J145" t="s">
+        <v>107</v>
       </c>
       <c r="K145" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>7833</v>
       </c>
       <c r="M145">
         <v>28047</v>
@@ -7106,14 +7112,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="J146" t="s">
+        <v>106</v>
       </c>
       <c r="K146" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>5724</v>
       </c>
       <c r="M146">
         <v>28049</v>
@@ -7150,14 +7156,14 @@
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147">
-        <v>3</v>
+      <c r="J147" t="s">
+        <v>106</v>
       </c>
       <c r="K147" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>31387</v>
       </c>
       <c r="M147">
         <v>28049</v>
@@ -7194,14 +7200,14 @@
       <c r="I148">
         <v>1</v>
       </c>
-      <c r="J148">
-        <v>3</v>
+      <c r="J148" t="s">
+        <v>107</v>
       </c>
       <c r="K148" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>6977</v>
       </c>
       <c r="M148">
         <v>28049</v>
@@ -7238,14 +7244,14 @@
       <c r="I149">
         <v>1</v>
       </c>
-      <c r="J149">
-        <v>3</v>
+      <c r="J149" t="s">
+        <v>107</v>
       </c>
       <c r="K149" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>3178</v>
       </c>
       <c r="M149">
         <v>28049</v>
@@ -7282,14 +7288,14 @@
       <c r="I150">
         <v>1</v>
       </c>
-      <c r="J150">
-        <v>3</v>
+      <c r="J150" t="s">
+        <v>107</v>
       </c>
       <c r="K150" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>1299</v>
       </c>
       <c r="M150">
         <v>28049</v>
@@ -7326,14 +7332,14 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151">
-        <v>3</v>
+      <c r="J151" t="s">
+        <v>107</v>
       </c>
       <c r="K151" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>5776</v>
       </c>
       <c r="M151">
         <v>28049</v>
@@ -7370,14 +7376,14 @@
       <c r="I152">
         <v>1</v>
       </c>
-      <c r="J152">
-        <v>3</v>
+      <c r="J152" t="s">
+        <v>106</v>
       </c>
       <c r="K152" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="M152">
         <v>28051</v>
@@ -7414,14 +7420,14 @@
       <c r="I153">
         <v>1</v>
       </c>
-      <c r="J153">
-        <v>3</v>
+      <c r="J153" t="s">
+        <v>106</v>
       </c>
       <c r="K153" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>3302</v>
       </c>
       <c r="M153">
         <v>28051</v>
@@ -7458,14 +7464,14 @@
       <c r="I154">
         <v>1</v>
       </c>
-      <c r="J154">
-        <v>3</v>
+      <c r="J154" t="s">
+        <v>107</v>
       </c>
       <c r="K154" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>414</v>
       </c>
       <c r="M154">
         <v>28051</v>
@@ -7502,14 +7508,14 @@
       <c r="I155">
         <v>1</v>
       </c>
-      <c r="J155">
-        <v>3</v>
+      <c r="J155" t="s">
+        <v>107</v>
       </c>
       <c r="K155" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="M155">
         <v>28051</v>
@@ -7546,14 +7552,14 @@
       <c r="I156">
         <v>1</v>
       </c>
-      <c r="J156">
-        <v>3</v>
+      <c r="J156" t="s">
+        <v>107</v>
       </c>
       <c r="K156" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M156">
         <v>28051</v>
@@ -7590,14 +7596,14 @@
       <c r="I157">
         <v>1</v>
       </c>
-      <c r="J157">
-        <v>3</v>
+      <c r="J157" t="s">
+        <v>107</v>
       </c>
       <c r="K157" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="M157">
         <v>28051</v>
@@ -7634,14 +7640,14 @@
       <c r="I158">
         <v>1</v>
       </c>
-      <c r="J158">
-        <v>3</v>
+      <c r="J158" t="s">
+        <v>106</v>
       </c>
       <c r="K158" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="M158">
         <v>28053</v>
@@ -7678,14 +7684,14 @@
       <c r="I159">
         <v>1</v>
       </c>
-      <c r="J159">
-        <v>3</v>
+      <c r="J159" t="s">
+        <v>106</v>
       </c>
       <c r="K159" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>2895</v>
       </c>
       <c r="M159">
         <v>28053</v>
@@ -7722,14 +7728,14 @@
       <c r="I160">
         <v>1</v>
       </c>
-      <c r="J160">
-        <v>3</v>
+      <c r="J160" t="s">
+        <v>107</v>
       </c>
       <c r="K160" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>434</v>
       </c>
       <c r="M160">
         <v>28053</v>
@@ -7766,14 +7772,14 @@
       <c r="I161">
         <v>1</v>
       </c>
-      <c r="J161">
-        <v>3</v>
+      <c r="J161" t="s">
+        <v>107</v>
       </c>
       <c r="K161" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="M161">
         <v>28053</v>
@@ -7810,14 +7816,14 @@
       <c r="I162">
         <v>1</v>
       </c>
-      <c r="J162">
-        <v>3</v>
+      <c r="J162" t="s">
+        <v>107</v>
       </c>
       <c r="K162" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M162">
         <v>28053</v>
@@ -7854,14 +7860,14 @@
       <c r="I163">
         <v>1</v>
       </c>
-      <c r="J163">
-        <v>3</v>
+      <c r="J163" t="s">
+        <v>107</v>
       </c>
       <c r="K163" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="M163">
         <v>28053</v>
@@ -7898,14 +7904,14 @@
       <c r="I164">
         <v>1</v>
       </c>
-      <c r="J164">
-        <v>3</v>
+      <c r="J164" t="s">
+        <v>106</v>
       </c>
       <c r="K164" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M164">
         <v>28055</v>
@@ -7942,14 +7948,14 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165">
-        <v>3</v>
+      <c r="J165" t="s">
+        <v>106</v>
       </c>
       <c r="K165" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="M165">
         <v>28055</v>
@@ -7986,14 +7992,14 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="J166">
-        <v>3</v>
+      <c r="J166" t="s">
+        <v>107</v>
       </c>
       <c r="K166" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="M166">
         <v>28055</v>
@@ -8030,14 +8036,14 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="J167">
-        <v>3</v>
+      <c r="J167" t="s">
+        <v>107</v>
       </c>
       <c r="K167" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M167">
         <v>28055</v>
@@ -8074,14 +8080,14 @@
       <c r="I168">
         <v>1</v>
       </c>
-      <c r="J168">
-        <v>3</v>
+      <c r="J168" t="s">
+        <v>107</v>
       </c>
       <c r="K168" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M168">
         <v>28055</v>
@@ -8118,14 +8124,14 @@
       <c r="I169">
         <v>1</v>
       </c>
-      <c r="J169">
-        <v>3</v>
+      <c r="J169" t="s">
+        <v>107</v>
       </c>
       <c r="K169" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M169">
         <v>28055</v>
@@ -8162,14 +8168,14 @@
       <c r="I170">
         <v>1</v>
       </c>
-      <c r="J170">
-        <v>3</v>
+      <c r="J170" t="s">
+        <v>106</v>
       </c>
       <c r="K170" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="M170">
         <v>28057</v>
@@ -8206,14 +8212,14 @@
       <c r="I171">
         <v>1</v>
       </c>
-      <c r="J171">
-        <v>3</v>
+      <c r="J171" t="s">
+        <v>106</v>
       </c>
       <c r="K171" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>378</v>
       </c>
       <c r="M171">
         <v>28057</v>
@@ -8250,14 +8256,14 @@
       <c r="I172">
         <v>1</v>
       </c>
-      <c r="J172">
-        <v>3</v>
+      <c r="J172" t="s">
+        <v>107</v>
       </c>
       <c r="K172" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>1906</v>
       </c>
       <c r="M172">
         <v>28057</v>
@@ -8294,14 +8300,14 @@
       <c r="I173">
         <v>1</v>
       </c>
-      <c r="J173">
-        <v>3</v>
+      <c r="J173" t="s">
+        <v>107</v>
       </c>
       <c r="K173" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="M173">
         <v>28057</v>
@@ -8338,14 +8344,14 @@
       <c r="I174">
         <v>1</v>
       </c>
-      <c r="J174">
-        <v>3</v>
+      <c r="J174" t="s">
+        <v>107</v>
       </c>
       <c r="K174" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="M174">
         <v>28057</v>
@@ -8382,14 +8388,14 @@
       <c r="I175">
         <v>1</v>
       </c>
-      <c r="J175">
-        <v>3</v>
+      <c r="J175" t="s">
+        <v>107</v>
       </c>
       <c r="K175" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>1776</v>
       </c>
       <c r="M175">
         <v>28057</v>
@@ -8426,14 +8432,14 @@
       <c r="I176">
         <v>1</v>
       </c>
-      <c r="J176">
-        <v>3</v>
+      <c r="J176" t="s">
+        <v>106</v>
       </c>
       <c r="K176" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>1449</v>
       </c>
       <c r="M176">
         <v>28059</v>
@@ -8470,14 +8476,14 @@
       <c r="I177">
         <v>1</v>
       </c>
-      <c r="J177">
-        <v>3</v>
+      <c r="J177" t="s">
+        <v>106</v>
       </c>
       <c r="K177" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>4812</v>
       </c>
       <c r="M177">
         <v>28059</v>
@@ -8514,14 +8520,14 @@
       <c r="I178">
         <v>1</v>
       </c>
-      <c r="J178">
-        <v>3</v>
+      <c r="J178" t="s">
+        <v>107</v>
       </c>
       <c r="K178" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>9935</v>
       </c>
       <c r="M178">
         <v>28059</v>
@@ -8558,14 +8564,14 @@
       <c r="I179">
         <v>1</v>
       </c>
-      <c r="J179">
-        <v>3</v>
+      <c r="J179" t="s">
+        <v>107</v>
       </c>
       <c r="K179" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>1721</v>
       </c>
       <c r="M179">
         <v>28059</v>
@@ -8602,14 +8608,14 @@
       <c r="I180">
         <v>1</v>
       </c>
-      <c r="J180">
-        <v>3</v>
+      <c r="J180" t="s">
+        <v>107</v>
       </c>
       <c r="K180" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>1102</v>
       </c>
       <c r="M180">
         <v>28059</v>
@@ -8646,14 +8652,14 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181">
-        <v>3</v>
+      <c r="J181" t="s">
+        <v>107</v>
       </c>
       <c r="K181" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>7081</v>
       </c>
       <c r="M181">
         <v>28059</v>
@@ -8690,14 +8696,14 @@
       <c r="I182">
         <v>1</v>
       </c>
-      <c r="J182">
-        <v>3</v>
+      <c r="J182" t="s">
+        <v>106</v>
       </c>
       <c r="K182" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="M182">
         <v>28061</v>
@@ -8734,14 +8740,14 @@
       <c r="I183">
         <v>1</v>
       </c>
-      <c r="J183">
-        <v>3</v>
+      <c r="J183" t="s">
+        <v>106</v>
       </c>
       <c r="K183" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>1977</v>
       </c>
       <c r="M183">
         <v>28061</v>
@@ -8778,14 +8784,14 @@
       <c r="I184">
         <v>1</v>
       </c>
-      <c r="J184">
-        <v>3</v>
+      <c r="J184" t="s">
+        <v>107</v>
       </c>
       <c r="K184" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>1287</v>
       </c>
       <c r="M184">
         <v>28061</v>
@@ -8822,14 +8828,14 @@
       <c r="I185">
         <v>1</v>
       </c>
-      <c r="J185">
-        <v>3</v>
+      <c r="J185" t="s">
+        <v>107</v>
       </c>
       <c r="K185" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="M185">
         <v>28061</v>
@@ -8866,14 +8872,14 @@
       <c r="I186">
         <v>1</v>
       </c>
-      <c r="J186">
-        <v>3</v>
+      <c r="J186" t="s">
+        <v>107</v>
       </c>
       <c r="K186" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="M186">
         <v>28061</v>
@@ -8910,14 +8916,14 @@
       <c r="I187">
         <v>1</v>
       </c>
-      <c r="J187">
-        <v>3</v>
+      <c r="J187" t="s">
+        <v>107</v>
       </c>
       <c r="K187" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>822</v>
       </c>
       <c r="M187">
         <v>28061</v>
@@ -8954,14 +8960,14 @@
       <c r="I188">
         <v>1</v>
       </c>
-      <c r="J188">
-        <v>3</v>
+      <c r="J188" t="s">
+        <v>106</v>
       </c>
       <c r="K188" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="M188">
         <v>28065</v>
@@ -8998,14 +9004,14 @@
       <c r="I189">
         <v>1</v>
       </c>
-      <c r="J189">
-        <v>3</v>
+      <c r="J189" t="s">
+        <v>106</v>
       </c>
       <c r="K189" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>1807</v>
       </c>
       <c r="M189">
         <v>28065</v>
@@ -9042,14 +9048,14 @@
       <c r="I190">
         <v>1</v>
       </c>
-      <c r="J190">
-        <v>3</v>
+      <c r="J190" t="s">
+        <v>107</v>
       </c>
       <c r="K190" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>764</v>
       </c>
       <c r="M190">
         <v>28065</v>
@@ -9086,14 +9092,14 @@
       <c r="I191">
         <v>1</v>
       </c>
-      <c r="J191">
-        <v>3</v>
+      <c r="J191" t="s">
+        <v>107</v>
       </c>
       <c r="K191" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="M191">
         <v>28065</v>
@@ -9130,14 +9136,14 @@
       <c r="I192">
         <v>1</v>
       </c>
-      <c r="J192">
-        <v>3</v>
+      <c r="J192" t="s">
+        <v>107</v>
       </c>
       <c r="K192" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="M192">
         <v>28065</v>
@@ -9174,14 +9180,14 @@
       <c r="I193">
         <v>1</v>
       </c>
-      <c r="J193">
-        <v>3</v>
+      <c r="J193" t="s">
+        <v>107</v>
       </c>
       <c r="K193" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>419</v>
       </c>
       <c r="M193">
         <v>28065</v>
@@ -9218,14 +9224,14 @@
       <c r="I194">
         <v>1</v>
       </c>
-      <c r="J194">
-        <v>3</v>
+      <c r="J194" t="s">
+        <v>106</v>
       </c>
       <c r="K194" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="M194">
         <v>28063</v>
@@ -9262,14 +9268,14 @@
       <c r="I195">
         <v>1</v>
       </c>
-      <c r="J195">
-        <v>3</v>
+      <c r="J195" t="s">
+        <v>106</v>
       </c>
       <c r="K195" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>1551</v>
       </c>
       <c r="M195">
         <v>28063</v>
@@ -9306,14 +9312,14 @@
       <c r="I196">
         <v>1</v>
       </c>
-      <c r="J196">
-        <v>3</v>
+      <c r="J196" t="s">
+        <v>107</v>
       </c>
       <c r="K196" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="M196">
         <v>28063</v>
@@ -9350,14 +9356,14 @@
       <c r="I197">
         <v>1</v>
       </c>
-      <c r="J197">
-        <v>3</v>
+      <c r="J197" t="s">
+        <v>107</v>
       </c>
       <c r="K197" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M197">
         <v>28063</v>
@@ -9394,14 +9400,14 @@
       <c r="I198">
         <v>1</v>
       </c>
-      <c r="J198">
-        <v>3</v>
+      <c r="J198" t="s">
+        <v>107</v>
       </c>
       <c r="K198" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M198">
         <v>28063</v>
@@ -9438,14 +9444,14 @@
       <c r="I199">
         <v>1</v>
       </c>
-      <c r="J199">
-        <v>3</v>
+      <c r="J199" t="s">
+        <v>107</v>
       </c>
       <c r="K199" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="M199">
         <v>28063</v>
@@ -9482,14 +9488,14 @@
       <c r="I200">
         <v>1</v>
       </c>
-      <c r="J200">
-        <v>3</v>
+      <c r="J200" t="s">
+        <v>106</v>
       </c>
       <c r="K200" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>511</v>
       </c>
       <c r="M200">
         <v>28067</v>
@@ -9526,14 +9532,14 @@
       <c r="I201">
         <v>1</v>
       </c>
-      <c r="J201">
-        <v>3</v>
+      <c r="J201" t="s">
+        <v>106</v>
       </c>
       <c r="K201" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>2682</v>
       </c>
       <c r="M201">
         <v>28067</v>
@@ -9570,14 +9576,14 @@
       <c r="I202">
         <v>1</v>
       </c>
-      <c r="J202">
-        <v>3</v>
+      <c r="J202" t="s">
+        <v>107</v>
       </c>
       <c r="K202" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L202">
-        <v>4</v>
+        <v>6389</v>
       </c>
       <c r="M202">
         <v>28067</v>
@@ -9614,14 +9620,14 @@
       <c r="I203">
         <v>1</v>
       </c>
-      <c r="J203">
-        <v>3</v>
+      <c r="J203" t="s">
+        <v>107</v>
       </c>
       <c r="K203" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>455</v>
       </c>
       <c r="M203">
         <v>28067</v>
@@ -9658,14 +9664,14 @@
       <c r="I204">
         <v>1</v>
       </c>
-      <c r="J204">
-        <v>3</v>
+      <c r="J204" t="s">
+        <v>107</v>
       </c>
       <c r="K204" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>305</v>
       </c>
       <c r="M204">
         <v>28067</v>
@@ -9702,14 +9708,14 @@
       <c r="I205">
         <v>1</v>
       </c>
-      <c r="J205">
-        <v>3</v>
+      <c r="J205" t="s">
+        <v>107</v>
       </c>
       <c r="K205" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>4649</v>
       </c>
       <c r="M205">
         <v>28067</v>
@@ -9746,14 +9752,14 @@
       <c r="I206">
         <v>1</v>
       </c>
-      <c r="J206">
-        <v>3</v>
+      <c r="J206" t="s">
+        <v>106</v>
       </c>
       <c r="K206" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="M206">
         <v>28069</v>
@@ -9790,14 +9796,14 @@
       <c r="I207">
         <v>1</v>
       </c>
-      <c r="J207">
-        <v>3</v>
+      <c r="J207" t="s">
+        <v>106</v>
       </c>
       <c r="K207" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>1009</v>
       </c>
       <c r="M207">
         <v>28069</v>
@@ -9834,14 +9840,14 @@
       <c r="I208">
         <v>1</v>
       </c>
-      <c r="J208">
-        <v>3</v>
+      <c r="J208" t="s">
+        <v>107</v>
       </c>
       <c r="K208" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>485</v>
       </c>
       <c r="M208">
         <v>28069</v>
@@ -9878,14 +9884,14 @@
       <c r="I209">
         <v>1</v>
       </c>
-      <c r="J209">
-        <v>3</v>
+      <c r="J209" t="s">
+        <v>107</v>
       </c>
       <c r="K209" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="M209">
         <v>28069</v>
@@ -9922,14 +9928,14 @@
       <c r="I210">
         <v>1</v>
       </c>
-      <c r="J210">
-        <v>3</v>
+      <c r="J210" t="s">
+        <v>107</v>
       </c>
       <c r="K210" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L210">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="M210">
         <v>28069</v>
@@ -9966,14 +9972,14 @@
       <c r="I211">
         <v>1</v>
       </c>
-      <c r="J211">
-        <v>3</v>
+      <c r="J211" t="s">
+        <v>107</v>
       </c>
       <c r="K211" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>329</v>
       </c>
       <c r="M211">
         <v>28069</v>
@@ -10010,14 +10016,14 @@
       <c r="I212">
         <v>1</v>
       </c>
-      <c r="J212">
-        <v>3</v>
+      <c r="J212" t="s">
+        <v>106</v>
       </c>
       <c r="K212" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>1337</v>
       </c>
       <c r="M212">
         <v>28071</v>
@@ -10054,14 +10060,14 @@
       <c r="I213">
         <v>1</v>
       </c>
-      <c r="J213">
-        <v>3</v>
+      <c r="J213" t="s">
+        <v>106</v>
       </c>
       <c r="K213" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>2452</v>
       </c>
       <c r="M213">
         <v>28071</v>
@@ -10098,14 +10104,14 @@
       <c r="I214">
         <v>1</v>
       </c>
-      <c r="J214">
-        <v>3</v>
+      <c r="J214" t="s">
+        <v>107</v>
       </c>
       <c r="K214" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>2522</v>
       </c>
       <c r="M214">
         <v>28071</v>
@@ -10142,14 +10148,14 @@
       <c r="I215">
         <v>1</v>
       </c>
-      <c r="J215">
-        <v>3</v>
+      <c r="J215" t="s">
+        <v>107</v>
       </c>
       <c r="K215" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>1262</v>
       </c>
       <c r="M215">
         <v>28071</v>
@@ -10186,14 +10192,14 @@
       <c r="I216">
         <v>1</v>
       </c>
-      <c r="J216">
-        <v>3</v>
+      <c r="J216" t="s">
+        <v>107</v>
       </c>
       <c r="K216" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>678</v>
       </c>
       <c r="M216">
         <v>28071</v>
@@ -10230,14 +10236,14 @@
       <c r="I217">
         <v>1</v>
       </c>
-      <c r="J217">
-        <v>3</v>
+      <c r="J217" t="s">
+        <v>107</v>
       </c>
       <c r="K217" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L217">
-        <v>4</v>
+        <v>2307</v>
       </c>
       <c r="M217">
         <v>28071</v>
@@ -10274,14 +10280,14 @@
       <c r="I218">
         <v>1</v>
       </c>
-      <c r="J218">
-        <v>3</v>
+      <c r="J218" t="s">
+        <v>106</v>
       </c>
       <c r="K218" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L218">
-        <v>4</v>
+        <v>545</v>
       </c>
       <c r="M218">
         <v>28073</v>
@@ -10318,14 +10324,14 @@
       <c r="I219">
         <v>1</v>
       </c>
-      <c r="J219">
-        <v>3</v>
+      <c r="J219" t="s">
+        <v>106</v>
       </c>
       <c r="K219" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>1465</v>
       </c>
       <c r="M219">
         <v>28073</v>
@@ -10362,14 +10368,14 @@
       <c r="I220">
         <v>1</v>
       </c>
-      <c r="J220">
-        <v>3</v>
+      <c r="J220" t="s">
+        <v>107</v>
       </c>
       <c r="K220" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>5198</v>
       </c>
       <c r="M220">
         <v>28073</v>
@@ -10406,14 +10412,14 @@
       <c r="I221">
         <v>1</v>
       </c>
-      <c r="J221">
-        <v>3</v>
+      <c r="J221" t="s">
+        <v>107</v>
       </c>
       <c r="K221" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>1040</v>
       </c>
       <c r="M221">
         <v>28073</v>
@@ -10450,14 +10456,14 @@
       <c r="I222">
         <v>1</v>
       </c>
-      <c r="J222">
-        <v>3</v>
+      <c r="J222" t="s">
+        <v>107</v>
       </c>
       <c r="K222" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>535</v>
       </c>
       <c r="M222">
         <v>28073</v>
@@ -10494,14 +10500,14 @@
       <c r="I223">
         <v>1</v>
       </c>
-      <c r="J223">
-        <v>3</v>
+      <c r="J223" t="s">
+        <v>107</v>
       </c>
       <c r="K223" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>4356</v>
       </c>
       <c r="M223">
         <v>28073</v>
@@ -10538,14 +10544,14 @@
       <c r="I224">
         <v>1</v>
       </c>
-      <c r="J224">
-        <v>3</v>
+      <c r="J224" t="s">
+        <v>106</v>
       </c>
       <c r="K224" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>620</v>
       </c>
       <c r="M224">
         <v>28075</v>
@@ -10582,14 +10588,14 @@
       <c r="I225">
         <v>1</v>
       </c>
-      <c r="J225">
-        <v>3</v>
+      <c r="J225" t="s">
+        <v>106</v>
       </c>
       <c r="K225" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>3307</v>
       </c>
       <c r="M225">
         <v>28075</v>
@@ -10626,14 +10632,14 @@
       <c r="I226">
         <v>1</v>
       </c>
-      <c r="J226">
-        <v>3</v>
+      <c r="J226" t="s">
+        <v>107</v>
       </c>
       <c r="K226" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>4741</v>
       </c>
       <c r="M226">
         <v>28075</v>
@@ -10670,14 +10676,14 @@
       <c r="I227">
         <v>1</v>
       </c>
-      <c r="J227">
-        <v>3</v>
+      <c r="J227" t="s">
+        <v>107</v>
       </c>
       <c r="K227" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>956</v>
       </c>
       <c r="M227">
         <v>28075</v>
@@ -10714,14 +10720,14 @@
       <c r="I228">
         <v>1</v>
       </c>
-      <c r="J228">
-        <v>3</v>
+      <c r="J228" t="s">
+        <v>107</v>
       </c>
       <c r="K228" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>570</v>
       </c>
       <c r="M228">
         <v>28075</v>
@@ -10758,14 +10764,14 @@
       <c r="I229">
         <v>1</v>
       </c>
-      <c r="J229">
-        <v>3</v>
+      <c r="J229" t="s">
+        <v>107</v>
       </c>
       <c r="K229" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>3858</v>
       </c>
       <c r="M229">
         <v>28075</v>
@@ -10802,14 +10808,14 @@
       <c r="I230">
         <v>1</v>
       </c>
-      <c r="J230">
-        <v>3</v>
+      <c r="J230" t="s">
+        <v>106</v>
       </c>
       <c r="K230" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="M230">
         <v>28077</v>
@@ -10846,14 +10852,14 @@
       <c r="I231">
         <v>1</v>
       </c>
-      <c r="J231">
-        <v>3</v>
+      <c r="J231" t="s">
+        <v>106</v>
       </c>
       <c r="K231" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>1113</v>
       </c>
       <c r="M231">
         <v>28077</v>
@@ -10890,14 +10896,14 @@
       <c r="I232">
         <v>1</v>
       </c>
-      <c r="J232">
-        <v>3</v>
+      <c r="J232" t="s">
+        <v>107</v>
       </c>
       <c r="K232" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>1202</v>
       </c>
       <c r="M232">
         <v>28077</v>
@@ -10934,14 +10940,14 @@
       <c r="I233">
         <v>1</v>
       </c>
-      <c r="J233">
-        <v>3</v>
+      <c r="J233" t="s">
+        <v>107</v>
       </c>
       <c r="K233" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="M233">
         <v>28077</v>
@@ -10978,14 +10984,14 @@
       <c r="I234">
         <v>1</v>
       </c>
-      <c r="J234">
-        <v>3</v>
+      <c r="J234" t="s">
+        <v>107</v>
       </c>
       <c r="K234" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="M234">
         <v>28077</v>
@@ -11022,14 +11028,14 @@
       <c r="I235">
         <v>1</v>
       </c>
-      <c r="J235">
-        <v>3</v>
+      <c r="J235" t="s">
+        <v>107</v>
       </c>
       <c r="K235" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>718</v>
       </c>
       <c r="M235">
         <v>28077</v>
@@ -11066,14 +11072,14 @@
       <c r="I236">
         <v>1</v>
       </c>
-      <c r="J236">
-        <v>3</v>
+      <c r="J236" t="s">
+        <v>106</v>
       </c>
       <c r="K236" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="M236">
         <v>28079</v>
@@ -11110,14 +11116,14 @@
       <c r="I237">
         <v>1</v>
       </c>
-      <c r="J237">
-        <v>3</v>
+      <c r="J237" t="s">
+        <v>106</v>
       </c>
       <c r="K237" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>1615</v>
       </c>
       <c r="M237">
         <v>28079</v>
@@ -11154,14 +11160,14 @@
       <c r="I238">
         <v>1</v>
       </c>
-      <c r="J238">
-        <v>3</v>
+      <c r="J238" t="s">
+        <v>107</v>
       </c>
       <c r="K238" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>1414</v>
       </c>
       <c r="M238">
         <v>28079</v>
@@ -11198,14 +11204,14 @@
       <c r="I239">
         <v>1</v>
       </c>
-      <c r="J239">
-        <v>3</v>
+      <c r="J239" t="s">
+        <v>107</v>
       </c>
       <c r="K239" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L239">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="M239">
         <v>28079</v>
@@ -11242,14 +11248,14 @@
       <c r="I240">
         <v>1</v>
       </c>
-      <c r="J240">
-        <v>3</v>
+      <c r="J240" t="s">
+        <v>107</v>
       </c>
       <c r="K240" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="M240">
         <v>28079</v>
@@ -11286,14 +11292,14 @@
       <c r="I241">
         <v>1</v>
       </c>
-      <c r="J241">
-        <v>3</v>
+      <c r="J241" t="s">
+        <v>107</v>
       </c>
       <c r="K241" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>1011</v>
       </c>
       <c r="M241">
         <v>28079</v>
@@ -11330,14 +11336,14 @@
       <c r="I242">
         <v>1</v>
       </c>
-      <c r="J242">
-        <v>3</v>
+      <c r="J242" t="s">
+        <v>106</v>
       </c>
       <c r="K242" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L242">
-        <v>4</v>
+        <v>885</v>
       </c>
       <c r="M242">
         <v>28081</v>
@@ -11374,14 +11380,14 @@
       <c r="I243">
         <v>1</v>
       </c>
-      <c r="J243">
-        <v>3</v>
+      <c r="J243" t="s">
+        <v>106</v>
       </c>
       <c r="K243" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>3021</v>
       </c>
       <c r="M243">
         <v>28081</v>
@@ -11418,14 +11424,14 @@
       <c r="I244">
         <v>1</v>
       </c>
-      <c r="J244">
-        <v>3</v>
+      <c r="J244" t="s">
+        <v>107</v>
       </c>
       <c r="K244" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>5370</v>
       </c>
       <c r="M244">
         <v>28081</v>
@@ -11462,14 +11468,14 @@
       <c r="I245">
         <v>1</v>
       </c>
-      <c r="J245">
-        <v>3</v>
+      <c r="J245" t="s">
+        <v>107</v>
       </c>
       <c r="K245" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>1245</v>
       </c>
       <c r="M245">
         <v>28081</v>
@@ -11506,14 +11512,14 @@
       <c r="I246">
         <v>1</v>
       </c>
-      <c r="J246">
-        <v>3</v>
+      <c r="J246" t="s">
+        <v>107</v>
       </c>
       <c r="K246" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>728</v>
       </c>
       <c r="M246">
         <v>28081</v>
@@ -11550,14 +11556,14 @@
       <c r="I247">
         <v>1</v>
       </c>
-      <c r="J247">
-        <v>3</v>
+      <c r="J247" t="s">
+        <v>107</v>
       </c>
       <c r="K247" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>5922</v>
       </c>
       <c r="M247">
         <v>28081</v>
@@ -11594,14 +11600,14 @@
       <c r="I248">
         <v>1</v>
       </c>
-      <c r="J248">
-        <v>3</v>
+      <c r="J248" t="s">
+        <v>106</v>
       </c>
       <c r="K248" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L248">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="M248">
         <v>28083</v>
@@ -11638,14 +11644,14 @@
       <c r="I249">
         <v>1</v>
       </c>
-      <c r="J249">
-        <v>3</v>
+      <c r="J249" t="s">
+        <v>106</v>
       </c>
       <c r="K249" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L249">
-        <v>4</v>
+        <v>2095</v>
       </c>
       <c r="M249">
         <v>28083</v>
@@ -11682,14 +11688,14 @@
       <c r="I250">
         <v>1</v>
       </c>
-      <c r="J250">
-        <v>3</v>
+      <c r="J250" t="s">
+        <v>107</v>
       </c>
       <c r="K250" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>767</v>
       </c>
       <c r="M250">
         <v>28083</v>
@@ -11726,14 +11732,14 @@
       <c r="I251">
         <v>1</v>
       </c>
-      <c r="J251">
-        <v>3</v>
+      <c r="J251" t="s">
+        <v>107</v>
       </c>
       <c r="K251" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>323</v>
       </c>
       <c r="M251">
         <v>28083</v>
@@ -11770,14 +11776,14 @@
       <c r="I252">
         <v>1</v>
       </c>
-      <c r="J252">
-        <v>3</v>
+      <c r="J252" t="s">
+        <v>107</v>
       </c>
       <c r="K252" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="M252">
         <v>28083</v>
@@ -11814,14 +11820,14 @@
       <c r="I253">
         <v>1</v>
       </c>
-      <c r="J253">
-        <v>3</v>
+      <c r="J253" t="s">
+        <v>107</v>
       </c>
       <c r="K253" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L253">
-        <v>4</v>
+        <v>403</v>
       </c>
       <c r="M253">
         <v>28083</v>
@@ -11858,14 +11864,14 @@
       <c r="I254">
         <v>1</v>
       </c>
-      <c r="J254">
-        <v>3</v>
+      <c r="J254" t="s">
+        <v>106</v>
       </c>
       <c r="K254" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="M254">
         <v>28085</v>
@@ -11902,14 +11908,14 @@
       <c r="I255">
         <v>1</v>
       </c>
-      <c r="J255">
-        <v>3</v>
+      <c r="J255" t="s">
+        <v>106</v>
       </c>
       <c r="K255" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>1818</v>
       </c>
       <c r="M255">
         <v>28085</v>
@@ -11946,14 +11952,14 @@
       <c r="I256">
         <v>1</v>
       </c>
-      <c r="J256">
-        <v>3</v>
+      <c r="J256" t="s">
+        <v>107</v>
       </c>
       <c r="K256" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>2951</v>
       </c>
       <c r="M256">
         <v>28085</v>
@@ -11990,14 +11996,14 @@
       <c r="I257">
         <v>1</v>
       </c>
-      <c r="J257">
-        <v>3</v>
+      <c r="J257" t="s">
+        <v>107</v>
       </c>
       <c r="K257" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L257">
-        <v>4</v>
+        <v>493</v>
       </c>
       <c r="M257">
         <v>28085</v>
@@ -12034,14 +12040,14 @@
       <c r="I258">
         <v>1</v>
       </c>
-      <c r="J258">
-        <v>3</v>
+      <c r="J258" t="s">
+        <v>107</v>
       </c>
       <c r="K258" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L258">
-        <v>4</v>
+        <v>359</v>
       </c>
       <c r="M258">
         <v>28085</v>
@@ -12078,14 +12084,14 @@
       <c r="I259">
         <v>1</v>
       </c>
-      <c r="J259">
-        <v>3</v>
+      <c r="J259" t="s">
+        <v>107</v>
       </c>
       <c r="K259" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>2247</v>
       </c>
       <c r="M259">
         <v>28085</v>
@@ -12122,14 +12128,14 @@
       <c r="I260">
         <v>1</v>
       </c>
-      <c r="J260">
-        <v>3</v>
+      <c r="J260" t="s">
+        <v>106</v>
       </c>
       <c r="K260" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>847</v>
       </c>
       <c r="M260">
         <v>28087</v>
@@ -12166,14 +12172,14 @@
       <c r="I261">
         <v>1</v>
       </c>
-      <c r="J261">
-        <v>3</v>
+      <c r="J261" t="s">
+        <v>106</v>
       </c>
       <c r="K261" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>4031</v>
       </c>
       <c r="M261">
         <v>28087</v>
@@ -12210,14 +12216,14 @@
       <c r="I262">
         <v>1</v>
       </c>
-      <c r="J262">
-        <v>3</v>
+      <c r="J262" t="s">
+        <v>107</v>
       </c>
       <c r="K262" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>3343</v>
       </c>
       <c r="M262">
         <v>28087</v>
@@ -12254,14 +12260,14 @@
       <c r="I263">
         <v>1</v>
       </c>
-      <c r="J263">
-        <v>3</v>
+      <c r="J263" t="s">
+        <v>107</v>
       </c>
       <c r="K263" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>749</v>
       </c>
       <c r="M263">
         <v>28087</v>
@@ -12298,14 +12304,14 @@
       <c r="I264">
         <v>1</v>
       </c>
-      <c r="J264">
-        <v>3</v>
+      <c r="J264" t="s">
+        <v>107</v>
       </c>
       <c r="K264" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>454</v>
       </c>
       <c r="M264">
         <v>28087</v>
@@ -12342,14 +12348,14 @@
       <c r="I265">
         <v>1</v>
       </c>
-      <c r="J265">
-        <v>3</v>
+      <c r="J265" t="s">
+        <v>107</v>
       </c>
       <c r="K265" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>3156</v>
       </c>
       <c r="M265">
         <v>28087</v>
@@ -12386,14 +12392,14 @@
       <c r="I266">
         <v>1</v>
       </c>
-      <c r="J266">
-        <v>3</v>
+      <c r="J266" t="s">
+        <v>106</v>
       </c>
       <c r="K266" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L266">
-        <v>4</v>
+        <v>1435</v>
       </c>
       <c r="M266">
         <v>28089</v>
@@ -12430,14 +12436,14 @@
       <c r="I267">
         <v>1</v>
       </c>
-      <c r="J267">
-        <v>3</v>
+      <c r="J267" t="s">
+        <v>106</v>
       </c>
       <c r="K267" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>7415</v>
       </c>
       <c r="M267">
         <v>28089</v>
@@ -12474,14 +12480,14 @@
       <c r="I268">
         <v>1</v>
       </c>
-      <c r="J268">
-        <v>3</v>
+      <c r="J268" t="s">
+        <v>107</v>
       </c>
       <c r="K268" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L268">
-        <v>4</v>
+        <v>7541</v>
       </c>
       <c r="M268">
         <v>28089</v>
@@ -12518,14 +12524,14 @@
       <c r="I269">
         <v>1</v>
       </c>
-      <c r="J269">
-        <v>3</v>
+      <c r="J269" t="s">
+        <v>107</v>
       </c>
       <c r="K269" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L269">
-        <v>4</v>
+        <v>3427</v>
       </c>
       <c r="M269">
         <v>28089</v>
@@ -12562,14 +12568,14 @@
       <c r="I270">
         <v>1</v>
       </c>
-      <c r="J270">
-        <v>3</v>
+      <c r="J270" t="s">
+        <v>107</v>
       </c>
       <c r="K270" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L270">
-        <v>4</v>
+        <v>1251</v>
       </c>
       <c r="M270">
         <v>28089</v>
@@ -12606,14 +12612,14 @@
       <c r="I271">
         <v>1</v>
       </c>
-      <c r="J271">
-        <v>3</v>
+      <c r="J271" t="s">
+        <v>107</v>
       </c>
       <c r="K271" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L271">
-        <v>4</v>
+        <v>5409</v>
       </c>
       <c r="M271">
         <v>28089</v>
@@ -12650,14 +12656,14 @@
       <c r="I272">
         <v>1</v>
       </c>
-      <c r="J272">
-        <v>3</v>
+      <c r="J272" t="s">
+        <v>106</v>
       </c>
       <c r="K272" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L272">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="M272">
         <v>28091</v>
@@ -12694,14 +12700,14 @@
       <c r="I273">
         <v>1</v>
       </c>
-      <c r="J273">
-        <v>3</v>
+      <c r="J273" t="s">
+        <v>106</v>
       </c>
       <c r="K273" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L273">
-        <v>4</v>
+        <v>1540</v>
       </c>
       <c r="M273">
         <v>28091</v>
@@ -12738,14 +12744,14 @@
       <c r="I274">
         <v>1</v>
       </c>
-      <c r="J274">
-        <v>3</v>
+      <c r="J274" t="s">
+        <v>107</v>
       </c>
       <c r="K274" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L274">
-        <v>4</v>
+        <v>2455</v>
       </c>
       <c r="M274">
         <v>28091</v>
@@ -12782,14 +12788,14 @@
       <c r="I275">
         <v>1</v>
       </c>
-      <c r="J275">
-        <v>3</v>
+      <c r="J275" t="s">
+        <v>107</v>
       </c>
       <c r="K275" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L275">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="M275">
         <v>28091</v>
@@ -12826,14 +12832,14 @@
       <c r="I276">
         <v>1</v>
       </c>
-      <c r="J276">
-        <v>3</v>
+      <c r="J276" t="s">
+        <v>107</v>
       </c>
       <c r="K276" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L276">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="M276">
         <v>28091</v>
@@ -12870,14 +12876,14 @@
       <c r="I277">
         <v>1</v>
       </c>
-      <c r="J277">
-        <v>3</v>
+      <c r="J277" t="s">
+        <v>107</v>
       </c>
       <c r="K277" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L277">
-        <v>4</v>
+        <v>1787</v>
       </c>
       <c r="M277">
         <v>28091</v>
@@ -12914,14 +12920,14 @@
       <c r="I278">
         <v>1</v>
       </c>
-      <c r="J278">
-        <v>3</v>
+      <c r="J278" t="s">
+        <v>106</v>
       </c>
       <c r="K278" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L278">
-        <v>4</v>
+        <v>387</v>
       </c>
       <c r="M278">
         <v>28093</v>
@@ -12958,14 +12964,14 @@
       <c r="I279">
         <v>1</v>
       </c>
-      <c r="J279">
-        <v>3</v>
+      <c r="J279" t="s">
+        <v>106</v>
       </c>
       <c r="K279" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L279">
-        <v>4</v>
+        <v>3362</v>
       </c>
       <c r="M279">
         <v>28093</v>
@@ -13002,14 +13008,14 @@
       <c r="I280">
         <v>1</v>
       </c>
-      <c r="J280">
-        <v>3</v>
+      <c r="J280" t="s">
+        <v>107</v>
       </c>
       <c r="K280" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L280">
-        <v>4</v>
+        <v>1713</v>
       </c>
       <c r="M280">
         <v>28093</v>
@@ -13046,14 +13052,14 @@
       <c r="I281">
         <v>1</v>
       </c>
-      <c r="J281">
-        <v>3</v>
+      <c r="J281" t="s">
+        <v>107</v>
       </c>
       <c r="K281" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L281">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="M281">
         <v>28093</v>
@@ -13090,14 +13096,14 @@
       <c r="I282">
         <v>1</v>
       </c>
-      <c r="J282">
-        <v>3</v>
+      <c r="J282" t="s">
+        <v>107</v>
       </c>
       <c r="K282" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L282">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="M282">
         <v>28093</v>
@@ -13134,14 +13140,14 @@
       <c r="I283">
         <v>1</v>
       </c>
-      <c r="J283">
-        <v>3</v>
+      <c r="J283" t="s">
+        <v>107</v>
       </c>
       <c r="K283" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L283">
-        <v>4</v>
+        <v>1680</v>
       </c>
       <c r="M283">
         <v>28093</v>
@@ -13178,14 +13184,14 @@
       <c r="I284">
         <v>1</v>
       </c>
-      <c r="J284">
-        <v>3</v>
+      <c r="J284" t="s">
+        <v>106</v>
       </c>
       <c r="K284" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L284">
-        <v>4</v>
+        <v>312</v>
       </c>
       <c r="M284">
         <v>28095</v>
@@ -13222,14 +13228,14 @@
       <c r="I285">
         <v>1</v>
       </c>
-      <c r="J285">
-        <v>3</v>
+      <c r="J285" t="s">
+        <v>106</v>
       </c>
       <c r="K285" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L285">
-        <v>4</v>
+        <v>1914</v>
       </c>
       <c r="M285">
         <v>28095</v>
@@ -13266,14 +13272,14 @@
       <c r="I286">
         <v>1</v>
       </c>
-      <c r="J286">
-        <v>3</v>
+      <c r="J286" t="s">
+        <v>107</v>
       </c>
       <c r="K286" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L286">
-        <v>4</v>
+        <v>2603</v>
       </c>
       <c r="M286">
         <v>28095</v>
@@ -13310,14 +13316,14 @@
       <c r="I287">
         <v>1</v>
       </c>
-      <c r="J287">
-        <v>3</v>
+      <c r="J287" t="s">
+        <v>107</v>
       </c>
       <c r="K287" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L287">
-        <v>4</v>
+        <v>348</v>
       </c>
       <c r="M287">
         <v>28095</v>
@@ -13354,14 +13360,14 @@
       <c r="I288">
         <v>1</v>
       </c>
-      <c r="J288">
-        <v>3</v>
+      <c r="J288" t="s">
+        <v>107</v>
       </c>
       <c r="K288" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L288">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="M288">
         <v>28095</v>
@@ -13398,14 +13404,14 @@
       <c r="I289">
         <v>1</v>
       </c>
-      <c r="J289">
-        <v>3</v>
+      <c r="J289" t="s">
+        <v>107</v>
       </c>
       <c r="K289" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L289">
-        <v>4</v>
+        <v>1773</v>
       </c>
       <c r="M289">
         <v>28095</v>
@@ -13442,14 +13448,14 @@
       <c r="I290">
         <v>1</v>
       </c>
-      <c r="J290">
-        <v>3</v>
+      <c r="J290" t="s">
+        <v>106</v>
       </c>
       <c r="K290" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L290">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="M290">
         <v>28097</v>
@@ -13486,14 +13492,14 @@
       <c r="I291">
         <v>1</v>
       </c>
-      <c r="J291">
-        <v>3</v>
+      <c r="J291" t="s">
+        <v>106</v>
       </c>
       <c r="K291" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L291">
-        <v>4</v>
+        <v>954</v>
       </c>
       <c r="M291">
         <v>28097</v>
@@ -13530,14 +13536,14 @@
       <c r="I292">
         <v>1</v>
       </c>
-      <c r="J292">
-        <v>3</v>
+      <c r="J292" t="s">
+        <v>107</v>
       </c>
       <c r="K292" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L292">
-        <v>4</v>
+        <v>699</v>
       </c>
       <c r="M292">
         <v>28097</v>
@@ -13574,14 +13580,14 @@
       <c r="I293">
         <v>1</v>
       </c>
-      <c r="J293">
-        <v>3</v>
+      <c r="J293" t="s">
+        <v>107</v>
       </c>
       <c r="K293" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L293">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="M293">
         <v>28097</v>
@@ -13618,14 +13624,14 @@
       <c r="I294">
         <v>1</v>
       </c>
-      <c r="J294">
-        <v>3</v>
+      <c r="J294" t="s">
+        <v>107</v>
       </c>
       <c r="K294" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L294">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="M294">
         <v>28097</v>
@@ -13662,14 +13668,14 @@
       <c r="I295">
         <v>1</v>
       </c>
-      <c r="J295">
-        <v>3</v>
+      <c r="J295" t="s">
+        <v>107</v>
       </c>
       <c r="K295" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L295">
-        <v>4</v>
+        <v>521</v>
       </c>
       <c r="M295">
         <v>28097</v>
@@ -13706,14 +13712,14 @@
       <c r="I296">
         <v>1</v>
       </c>
-      <c r="J296">
-        <v>3</v>
+      <c r="J296" t="s">
+        <v>106</v>
       </c>
       <c r="K296" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L296">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="M296">
         <v>28099</v>
@@ -13750,14 +13756,14 @@
       <c r="I297">
         <v>1</v>
       </c>
-      <c r="J297">
-        <v>3</v>
+      <c r="J297" t="s">
+        <v>106</v>
       </c>
       <c r="K297" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L297">
-        <v>4</v>
+        <v>930</v>
       </c>
       <c r="M297">
         <v>28099</v>
@@ -13794,14 +13800,14 @@
       <c r="I298">
         <v>1</v>
       </c>
-      <c r="J298">
-        <v>3</v>
+      <c r="J298" t="s">
+        <v>107</v>
       </c>
       <c r="K298" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L298">
-        <v>4</v>
+        <v>2250</v>
       </c>
       <c r="M298">
         <v>28099</v>
@@ -13838,14 +13844,14 @@
       <c r="I299">
         <v>1</v>
       </c>
-      <c r="J299">
-        <v>3</v>
+      <c r="J299" t="s">
+        <v>107</v>
       </c>
       <c r="K299" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L299">
-        <v>4</v>
+        <v>382</v>
       </c>
       <c r="M299">
         <v>28099</v>
@@ -13882,14 +13888,14 @@
       <c r="I300">
         <v>1</v>
       </c>
-      <c r="J300">
-        <v>3</v>
+      <c r="J300" t="s">
+        <v>107</v>
       </c>
       <c r="K300" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L300">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="M300">
         <v>28099</v>
@@ -13926,14 +13932,14 @@
       <c r="I301">
         <v>1</v>
       </c>
-      <c r="J301">
-        <v>3</v>
+      <c r="J301" t="s">
+        <v>107</v>
       </c>
       <c r="K301" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L301">
-        <v>4</v>
+        <v>1501</v>
       </c>
       <c r="M301">
         <v>28099</v>
@@ -13970,14 +13976,14 @@
       <c r="I302">
         <v>1</v>
       </c>
-      <c r="J302">
-        <v>3</v>
+      <c r="J302" t="s">
+        <v>106</v>
       </c>
       <c r="K302" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L302">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="M302">
         <v>28101</v>
@@ -14014,14 +14020,14 @@
       <c r="I303">
         <v>1</v>
       </c>
-      <c r="J303">
-        <v>3</v>
+      <c r="J303" t="s">
+        <v>106</v>
       </c>
       <c r="K303" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L303">
-        <v>4</v>
+        <v>1001</v>
       </c>
       <c r="M303">
         <v>28101</v>
@@ -14058,14 +14064,14 @@
       <c r="I304">
         <v>1</v>
       </c>
-      <c r="J304">
-        <v>3</v>
+      <c r="J304" t="s">
+        <v>107</v>
       </c>
       <c r="K304" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L304">
-        <v>4</v>
+        <v>1795</v>
       </c>
       <c r="M304">
         <v>28101</v>
@@ -14102,14 +14108,14 @@
       <c r="I305">
         <v>1</v>
       </c>
-      <c r="J305">
-        <v>3</v>
+      <c r="J305" t="s">
+        <v>107</v>
       </c>
       <c r="K305" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L305">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="M305">
         <v>28101</v>
@@ -14146,14 +14152,14 @@
       <c r="I306">
         <v>1</v>
       </c>
-      <c r="J306">
-        <v>3</v>
+      <c r="J306" t="s">
+        <v>107</v>
       </c>
       <c r="K306" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L306">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="M306">
         <v>28101</v>
@@ -14190,14 +14196,14 @@
       <c r="I307">
         <v>1</v>
       </c>
-      <c r="J307">
-        <v>3</v>
+      <c r="J307" t="s">
+        <v>107</v>
       </c>
       <c r="K307" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L307">
-        <v>4</v>
+        <v>1520</v>
       </c>
       <c r="M307">
         <v>28101</v>
@@ -14234,14 +14240,14 @@
       <c r="I308">
         <v>1</v>
       </c>
-      <c r="J308">
-        <v>3</v>
+      <c r="J308" t="s">
+        <v>106</v>
       </c>
       <c r="K308" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L308">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="M308">
         <v>28103</v>
@@ -14278,14 +14284,14 @@
       <c r="I309">
         <v>1</v>
       </c>
-      <c r="J309">
-        <v>3</v>
+      <c r="J309" t="s">
+        <v>106</v>
       </c>
       <c r="K309" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L309">
-        <v>4</v>
+        <v>1398</v>
       </c>
       <c r="M309">
         <v>28103</v>
@@ -14322,14 +14328,14 @@
       <c r="I310">
         <v>1</v>
       </c>
-      <c r="J310">
-        <v>3</v>
+      <c r="J310" t="s">
+        <v>107</v>
       </c>
       <c r="K310" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L310">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="M310">
         <v>28103</v>
@@ -14366,14 +14372,14 @@
       <c r="I311">
         <v>1</v>
       </c>
-      <c r="J311">
-        <v>3</v>
+      <c r="J311" t="s">
+        <v>107</v>
       </c>
       <c r="K311" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L311">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M311">
         <v>28103</v>
@@ -14410,14 +14416,14 @@
       <c r="I312">
         <v>1</v>
       </c>
-      <c r="J312">
-        <v>3</v>
+      <c r="J312" t="s">
+        <v>107</v>
       </c>
       <c r="K312" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L312">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M312">
         <v>28103</v>
@@ -14454,14 +14460,14 @@
       <c r="I313">
         <v>1</v>
       </c>
-      <c r="J313">
-        <v>3</v>
+      <c r="J313" t="s">
+        <v>107</v>
       </c>
       <c r="K313" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L313">
-        <v>4</v>
+        <v>283</v>
       </c>
       <c r="M313">
         <v>28103</v>
@@ -14498,14 +14504,14 @@
       <c r="I314">
         <v>1</v>
       </c>
-      <c r="J314">
-        <v>3</v>
+      <c r="J314" t="s">
+        <v>106</v>
       </c>
       <c r="K314" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L314">
-        <v>4</v>
+        <v>740</v>
       </c>
       <c r="M314">
         <v>28105</v>
@@ -14542,14 +14548,14 @@
       <c r="I315">
         <v>1</v>
       </c>
-      <c r="J315">
-        <v>3</v>
+      <c r="J315" t="s">
+        <v>106</v>
       </c>
       <c r="K315" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L315">
-        <v>4</v>
+        <v>2390</v>
       </c>
       <c r="M315">
         <v>28105</v>
@@ -14586,14 +14592,14 @@
       <c r="I316">
         <v>1</v>
       </c>
-      <c r="J316">
-        <v>3</v>
+      <c r="J316" t="s">
+        <v>107</v>
       </c>
       <c r="K316" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L316">
-        <v>4</v>
+        <v>1549</v>
       </c>
       <c r="M316">
         <v>28105</v>
@@ -14630,14 +14636,14 @@
       <c r="I317">
         <v>1</v>
       </c>
-      <c r="J317">
-        <v>3</v>
+      <c r="J317" t="s">
+        <v>107</v>
       </c>
       <c r="K317" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L317">
-        <v>4</v>
+        <v>859</v>
       </c>
       <c r="M317">
         <v>28105</v>
@@ -14674,14 +14680,14 @@
       <c r="I318">
         <v>1</v>
       </c>
-      <c r="J318">
-        <v>3</v>
+      <c r="J318" t="s">
+        <v>107</v>
       </c>
       <c r="K318" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L318">
-        <v>4</v>
+        <v>421</v>
       </c>
       <c r="M318">
         <v>28105</v>
@@ -14718,14 +14724,14 @@
       <c r="I319">
         <v>1</v>
       </c>
-      <c r="J319">
-        <v>3</v>
+      <c r="J319" t="s">
+        <v>107</v>
       </c>
       <c r="K319" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L319">
-        <v>4</v>
+        <v>1938</v>
       </c>
       <c r="M319">
         <v>28105</v>
@@ -14762,14 +14768,14 @@
       <c r="I320">
         <v>1</v>
       </c>
-      <c r="J320">
-        <v>3</v>
+      <c r="J320" t="s">
+        <v>106</v>
       </c>
       <c r="K320" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L320">
-        <v>4</v>
+        <v>480</v>
       </c>
       <c r="M320">
         <v>28107</v>
@@ -14806,14 +14812,14 @@
       <c r="I321">
         <v>1</v>
       </c>
-      <c r="J321">
-        <v>3</v>
+      <c r="J321" t="s">
+        <v>106</v>
       </c>
       <c r="K321" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L321">
-        <v>4</v>
+        <v>3062</v>
       </c>
       <c r="M321">
         <v>28107</v>
@@ -14850,14 +14856,14 @@
       <c r="I322">
         <v>1</v>
       </c>
-      <c r="J322">
-        <v>3</v>
+      <c r="J322" t="s">
+        <v>107</v>
       </c>
       <c r="K322" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L322">
-        <v>4</v>
+        <v>2273</v>
       </c>
       <c r="M322">
         <v>28107</v>
@@ -14894,14 +14900,14 @@
       <c r="I323">
         <v>1</v>
       </c>
-      <c r="J323">
-        <v>3</v>
+      <c r="J323" t="s">
+        <v>107</v>
       </c>
       <c r="K323" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="M323">
         <v>28107</v>
@@ -14938,14 +14944,14 @@
       <c r="I324">
         <v>1</v>
       </c>
-      <c r="J324">
-        <v>3</v>
+      <c r="J324" t="s">
+        <v>107</v>
       </c>
       <c r="K324" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L324">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="M324">
         <v>28107</v>
@@ -14982,14 +14988,14 @@
       <c r="I325">
         <v>1</v>
       </c>
-      <c r="J325">
-        <v>3</v>
+      <c r="J325" t="s">
+        <v>107</v>
       </c>
       <c r="K325" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L325">
-        <v>4</v>
+        <v>1407</v>
       </c>
       <c r="M325">
         <v>28107</v>
@@ -15026,14 +15032,14 @@
       <c r="I326">
         <v>1</v>
       </c>
-      <c r="J326">
-        <v>3</v>
+      <c r="J326" t="s">
+        <v>106</v>
       </c>
       <c r="K326" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L326">
-        <v>4</v>
+        <v>353</v>
       </c>
       <c r="M326">
         <v>28109</v>
@@ -15070,14 +15076,14 @@
       <c r="I327">
         <v>1</v>
       </c>
-      <c r="J327">
-        <v>3</v>
+      <c r="J327" t="s">
+        <v>106</v>
       </c>
       <c r="K327" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L327">
-        <v>4</v>
+        <v>975</v>
       </c>
       <c r="M327">
         <v>28109</v>
@@ -15114,14 +15120,14 @@
       <c r="I328">
         <v>1</v>
       </c>
-      <c r="J328">
-        <v>3</v>
+      <c r="J328" t="s">
+        <v>107</v>
       </c>
       <c r="K328" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L328">
-        <v>4</v>
+        <v>4563</v>
       </c>
       <c r="M328">
         <v>28109</v>
@@ -15158,14 +15164,14 @@
       <c r="I329">
         <v>1</v>
       </c>
-      <c r="J329">
-        <v>3</v>
+      <c r="J329" t="s">
+        <v>107</v>
       </c>
       <c r="K329" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L329">
-        <v>4</v>
+        <v>477</v>
       </c>
       <c r="M329">
         <v>28109</v>
@@ -15202,14 +15208,14 @@
       <c r="I330">
         <v>1</v>
       </c>
-      <c r="J330">
-        <v>3</v>
+      <c r="J330" t="s">
+        <v>107</v>
       </c>
       <c r="K330" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L330">
-        <v>4</v>
+        <v>344</v>
       </c>
       <c r="M330">
         <v>28109</v>
@@ -15246,14 +15252,14 @@
       <c r="I331">
         <v>1</v>
       </c>
-      <c r="J331">
-        <v>3</v>
+      <c r="J331" t="s">
+        <v>107</v>
       </c>
       <c r="K331" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L331">
-        <v>4</v>
+        <v>3484</v>
       </c>
       <c r="M331">
         <v>28109</v>
@@ -15290,14 +15296,14 @@
       <c r="I332">
         <v>1</v>
       </c>
-      <c r="J332">
-        <v>3</v>
+      <c r="J332" t="s">
+        <v>106</v>
       </c>
       <c r="K332" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L332">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="M332">
         <v>28111</v>
@@ -15334,14 +15340,14 @@
       <c r="I333">
         <v>1</v>
       </c>
-      <c r="J333">
-        <v>3</v>
+      <c r="J333" t="s">
+        <v>106</v>
       </c>
       <c r="K333" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L333">
-        <v>4</v>
+        <v>402</v>
       </c>
       <c r="M333">
         <v>28111</v>
@@ -15378,14 +15384,14 @@
       <c r="I334">
         <v>1</v>
       </c>
-      <c r="J334">
-        <v>3</v>
+      <c r="J334" t="s">
+        <v>107</v>
       </c>
       <c r="K334" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L334">
-        <v>4</v>
+        <v>677</v>
       </c>
       <c r="M334">
         <v>28111</v>
@@ -15422,14 +15428,14 @@
       <c r="I335">
         <v>1</v>
       </c>
-      <c r="J335">
-        <v>3</v>
+      <c r="J335" t="s">
+        <v>107</v>
       </c>
       <c r="K335" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L335">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="M335">
         <v>28111</v>
@@ -15466,14 +15472,14 @@
       <c r="I336">
         <v>1</v>
       </c>
-      <c r="J336">
-        <v>3</v>
+      <c r="J336" t="s">
+        <v>107</v>
       </c>
       <c r="K336" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L336">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M336">
         <v>28111</v>
@@ -15510,14 +15516,14 @@
       <c r="I337">
         <v>1</v>
       </c>
-      <c r="J337">
-        <v>3</v>
+      <c r="J337" t="s">
+        <v>107</v>
       </c>
       <c r="K337" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L337">
-        <v>4</v>
+        <v>550</v>
       </c>
       <c r="M337">
         <v>28111</v>
@@ -15554,14 +15560,14 @@
       <c r="I338">
         <v>1</v>
       </c>
-      <c r="J338">
-        <v>3</v>
+      <c r="J338" t="s">
+        <v>106</v>
       </c>
       <c r="K338" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L338">
-        <v>4</v>
+        <v>426</v>
       </c>
       <c r="M338">
         <v>28113</v>
@@ -15598,14 +15604,14 @@
       <c r="I339">
         <v>1</v>
       </c>
-      <c r="J339">
-        <v>3</v>
+      <c r="J339" t="s">
+        <v>106</v>
       </c>
       <c r="K339" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L339">
-        <v>4</v>
+        <v>2871</v>
       </c>
       <c r="M339">
         <v>28113</v>
@@ -15642,14 +15648,14 @@
       <c r="I340">
         <v>1</v>
       </c>
-      <c r="J340">
-        <v>3</v>
+      <c r="J340" t="s">
+        <v>107</v>
       </c>
       <c r="K340" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L340">
-        <v>4</v>
+        <v>2188</v>
       </c>
       <c r="M340">
         <v>28113</v>
@@ -15686,14 +15692,14 @@
       <c r="I341">
         <v>1</v>
       </c>
-      <c r="J341">
-        <v>3</v>
+      <c r="J341" t="s">
+        <v>107</v>
       </c>
       <c r="K341" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L341">
-        <v>4</v>
+        <v>469</v>
       </c>
       <c r="M341">
         <v>28113</v>
@@ -15730,14 +15736,14 @@
       <c r="I342">
         <v>1</v>
       </c>
-      <c r="J342">
-        <v>3</v>
+      <c r="J342" t="s">
+        <v>107</v>
       </c>
       <c r="K342" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L342">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="M342">
         <v>28113</v>
@@ -15774,14 +15780,14 @@
       <c r="I343">
         <v>1</v>
       </c>
-      <c r="J343">
-        <v>3</v>
+      <c r="J343" t="s">
+        <v>107</v>
       </c>
       <c r="K343" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L343">
-        <v>4</v>
+        <v>1440</v>
       </c>
       <c r="M343">
         <v>28113</v>
@@ -15818,14 +15824,14 @@
       <c r="I344">
         <v>1</v>
       </c>
-      <c r="J344">
-        <v>3</v>
+      <c r="J344" t="s">
+        <v>106</v>
       </c>
       <c r="K344" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L344">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="M344">
         <v>28115</v>
@@ -15862,14 +15868,14 @@
       <c r="I345">
         <v>1</v>
       </c>
-      <c r="J345">
-        <v>3</v>
+      <c r="J345" t="s">
+        <v>106</v>
       </c>
       <c r="K345" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L345">
-        <v>4</v>
+        <v>734</v>
       </c>
       <c r="M345">
         <v>28115</v>
@@ -15906,14 +15912,14 @@
       <c r="I346">
         <v>1</v>
       </c>
-      <c r="J346">
-        <v>3</v>
+      <c r="J346" t="s">
+        <v>107</v>
       </c>
       <c r="K346" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L346">
-        <v>4</v>
+        <v>2321</v>
       </c>
       <c r="M346">
         <v>28115</v>
@@ -15950,14 +15956,14 @@
       <c r="I347">
         <v>1</v>
       </c>
-      <c r="J347">
-        <v>3</v>
+      <c r="J347" t="s">
+        <v>107</v>
       </c>
       <c r="K347" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L347">
-        <v>4</v>
+        <v>315</v>
       </c>
       <c r="M347">
         <v>28115</v>
@@ -15994,14 +16000,14 @@
       <c r="I348">
         <v>1</v>
       </c>
-      <c r="J348">
-        <v>3</v>
+      <c r="J348" t="s">
+        <v>107</v>
       </c>
       <c r="K348" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L348">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="M348">
         <v>28115</v>
@@ -16038,14 +16044,14 @@
       <c r="I349">
         <v>1</v>
       </c>
-      <c r="J349">
-        <v>3</v>
+      <c r="J349" t="s">
+        <v>107</v>
       </c>
       <c r="K349" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L349">
-        <v>4</v>
+        <v>2499</v>
       </c>
       <c r="M349">
         <v>28115</v>
@@ -16082,14 +16088,14 @@
       <c r="I350">
         <v>1</v>
       </c>
-      <c r="J350">
-        <v>3</v>
+      <c r="J350" t="s">
+        <v>106</v>
       </c>
       <c r="K350" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L350">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="M350">
         <v>28117</v>
@@ -16126,14 +16132,14 @@
       <c r="I351">
         <v>1</v>
       </c>
-      <c r="J351">
-        <v>3</v>
+      <c r="J351" t="s">
+        <v>106</v>
       </c>
       <c r="K351" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L351">
-        <v>4</v>
+        <v>682</v>
       </c>
       <c r="M351">
         <v>28117</v>
@@ -16170,14 +16176,14 @@
       <c r="I352">
         <v>1</v>
       </c>
-      <c r="J352">
-        <v>3</v>
+      <c r="J352" t="s">
+        <v>107</v>
       </c>
       <c r="K352" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L352">
-        <v>4</v>
+        <v>1598</v>
       </c>
       <c r="M352">
         <v>28117</v>
@@ -16214,14 +16220,14 @@
       <c r="I353">
         <v>1</v>
       </c>
-      <c r="J353">
-        <v>3</v>
+      <c r="J353" t="s">
+        <v>107</v>
       </c>
       <c r="K353" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L353">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="M353">
         <v>28117</v>
@@ -16258,14 +16264,14 @@
       <c r="I354">
         <v>1</v>
       </c>
-      <c r="J354">
-        <v>3</v>
+      <c r="J354" t="s">
+        <v>107</v>
       </c>
       <c r="K354" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L354">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="M354">
         <v>28117</v>
@@ -16302,14 +16308,14 @@
       <c r="I355">
         <v>1</v>
       </c>
-      <c r="J355">
-        <v>3</v>
+      <c r="J355" t="s">
+        <v>107</v>
       </c>
       <c r="K355" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L355">
-        <v>4</v>
+        <v>1370</v>
       </c>
       <c r="M355">
         <v>28117</v>
@@ -16346,14 +16352,14 @@
       <c r="I356">
         <v>1</v>
       </c>
-      <c r="J356">
-        <v>3</v>
+      <c r="J356" t="s">
+        <v>106</v>
       </c>
       <c r="K356" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L356">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="M356">
         <v>28119</v>
@@ -16390,14 +16396,14 @@
       <c r="I357">
         <v>1</v>
       </c>
-      <c r="J357">
-        <v>3</v>
+      <c r="J357" t="s">
+        <v>106</v>
       </c>
       <c r="K357" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L357">
-        <v>4</v>
+        <v>987</v>
       </c>
       <c r="M357">
         <v>28119</v>
@@ -16434,14 +16440,14 @@
       <c r="I358">
         <v>1</v>
       </c>
-      <c r="J358">
-        <v>3</v>
+      <c r="J358" t="s">
+        <v>107</v>
       </c>
       <c r="K358" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L358">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="M358">
         <v>28119</v>
@@ -16478,14 +16484,14 @@
       <c r="I359">
         <v>1</v>
       </c>
-      <c r="J359">
-        <v>3</v>
+      <c r="J359" t="s">
+        <v>107</v>
       </c>
       <c r="K359" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L359">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M359">
         <v>28119</v>
@@ -16522,14 +16528,14 @@
       <c r="I360">
         <v>1</v>
       </c>
-      <c r="J360">
-        <v>3</v>
+      <c r="J360" t="s">
+        <v>107</v>
       </c>
       <c r="K360" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L360">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M360">
         <v>28119</v>
@@ -16566,14 +16572,14 @@
       <c r="I361">
         <v>1</v>
       </c>
-      <c r="J361">
-        <v>3</v>
+      <c r="J361" t="s">
+        <v>107</v>
       </c>
       <c r="K361" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L361">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="M361">
         <v>28119</v>
@@ -16610,14 +16616,14 @@
       <c r="I362">
         <v>1</v>
       </c>
-      <c r="J362">
-        <v>3</v>
+      <c r="J362" t="s">
+        <v>106</v>
       </c>
       <c r="K362" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L362">
-        <v>4</v>
+        <v>1357</v>
       </c>
       <c r="M362">
         <v>28121</v>
@@ -16654,14 +16660,14 @@
       <c r="I363">
         <v>1</v>
       </c>
-      <c r="J363">
-        <v>3</v>
+      <c r="J363" t="s">
+        <v>106</v>
       </c>
       <c r="K363" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L363">
-        <v>4</v>
+        <v>4690</v>
       </c>
       <c r="M363">
         <v>28121</v>
@@ -16698,14 +16704,14 @@
       <c r="I364">
         <v>1</v>
       </c>
-      <c r="J364">
-        <v>3</v>
+      <c r="J364" t="s">
+        <v>107</v>
       </c>
       <c r="K364" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L364">
-        <v>4</v>
+        <v>13730</v>
       </c>
       <c r="M364">
         <v>28121</v>
@@ -16742,14 +16748,14 @@
       <c r="I365">
         <v>1</v>
       </c>
-      <c r="J365">
-        <v>3</v>
+      <c r="J365" t="s">
+        <v>107</v>
       </c>
       <c r="K365" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L365">
-        <v>4</v>
+        <v>3039</v>
       </c>
       <c r="M365">
         <v>28121</v>
@@ -16786,14 +16792,14 @@
       <c r="I366">
         <v>1</v>
       </c>
-      <c r="J366">
-        <v>3</v>
+      <c r="J366" t="s">
+        <v>107</v>
       </c>
       <c r="K366" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L366">
-        <v>4</v>
+        <v>1634</v>
       </c>
       <c r="M366">
         <v>28121</v>
@@ -16830,14 +16836,14 @@
       <c r="I367">
         <v>1</v>
       </c>
-      <c r="J367">
-        <v>3</v>
+      <c r="J367" t="s">
+        <v>107</v>
       </c>
       <c r="K367" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L367">
-        <v>4</v>
+        <v>10281</v>
       </c>
       <c r="M367">
         <v>28121</v>
@@ -16874,14 +16880,14 @@
       <c r="I368">
         <v>1</v>
       </c>
-      <c r="J368">
-        <v>3</v>
+      <c r="J368" t="s">
+        <v>106</v>
       </c>
       <c r="K368" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L368">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="M368">
         <v>28123</v>
@@ -16918,14 +16924,14 @@
       <c r="I369">
         <v>1</v>
       </c>
-      <c r="J369">
-        <v>3</v>
+      <c r="J369" t="s">
+        <v>106</v>
       </c>
       <c r="K369" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L369">
-        <v>4</v>
+        <v>2014</v>
       </c>
       <c r="M369">
         <v>28123</v>
@@ -16962,14 +16968,14 @@
       <c r="I370">
         <v>1</v>
       </c>
-      <c r="J370">
-        <v>3</v>
+      <c r="J370" t="s">
+        <v>107</v>
       </c>
       <c r="K370" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L370">
-        <v>4</v>
+        <v>1824</v>
       </c>
       <c r="M370">
         <v>28123</v>
@@ -17006,14 +17012,14 @@
       <c r="I371">
         <v>1</v>
       </c>
-      <c r="J371">
-        <v>3</v>
+      <c r="J371" t="s">
+        <v>107</v>
       </c>
       <c r="K371" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L371">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="M371">
         <v>28123</v>
@@ -17050,14 +17056,14 @@
       <c r="I372">
         <v>1</v>
       </c>
-      <c r="J372">
-        <v>3</v>
+      <c r="J372" t="s">
+        <v>107</v>
       </c>
       <c r="K372" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L372">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="M372">
         <v>28123</v>
@@ -17094,14 +17100,14 @@
       <c r="I373">
         <v>1</v>
       </c>
-      <c r="J373">
-        <v>3</v>
+      <c r="J373" t="s">
+        <v>107</v>
       </c>
       <c r="K373" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L373">
-        <v>4</v>
+        <v>1215</v>
       </c>
       <c r="M373">
         <v>28123</v>
@@ -17138,14 +17144,14 @@
       <c r="I374">
         <v>1</v>
       </c>
-      <c r="J374">
-        <v>3</v>
+      <c r="J374" t="s">
+        <v>106</v>
       </c>
       <c r="K374" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L374">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="M374">
         <v>28125</v>
@@ -17182,14 +17188,14 @@
       <c r="I375">
         <v>1</v>
       </c>
-      <c r="J375">
-        <v>3</v>
+      <c r="J375" t="s">
+        <v>106</v>
       </c>
       <c r="K375" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L375">
-        <v>4</v>
+        <v>646</v>
       </c>
       <c r="M375">
         <v>28125</v>
@@ -17226,14 +17232,14 @@
       <c r="I376">
         <v>1</v>
       </c>
-      <c r="J376">
-        <v>3</v>
+      <c r="J376" t="s">
+        <v>107</v>
       </c>
       <c r="K376" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L376">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="M376">
         <v>28125</v>
@@ -17270,14 +17276,14 @@
       <c r="I377">
         <v>1</v>
       </c>
-      <c r="J377">
-        <v>3</v>
+      <c r="J377" t="s">
+        <v>107</v>
       </c>
       <c r="K377" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L377">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="M377">
         <v>28125</v>
@@ -17314,14 +17320,14 @@
       <c r="I378">
         <v>1</v>
       </c>
-      <c r="J378">
-        <v>3</v>
+      <c r="J378" t="s">
+        <v>107</v>
       </c>
       <c r="K378" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L378">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="M378">
         <v>28125</v>
@@ -17358,14 +17364,14 @@
       <c r="I379">
         <v>1</v>
       </c>
-      <c r="J379">
-        <v>3</v>
+      <c r="J379" t="s">
+        <v>107</v>
       </c>
       <c r="K379" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L379">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="M379">
         <v>28125</v>
@@ -17402,14 +17408,14 @@
       <c r="I380">
         <v>1</v>
       </c>
-      <c r="J380">
-        <v>3</v>
+      <c r="J380" t="s">
+        <v>106</v>
       </c>
       <c r="K380" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L380">
-        <v>4</v>
+        <v>295</v>
       </c>
       <c r="M380">
         <v>28127</v>
@@ -17446,14 +17452,14 @@
       <c r="I381">
         <v>1</v>
       </c>
-      <c r="J381">
-        <v>3</v>
+      <c r="J381" t="s">
+        <v>106</v>
       </c>
       <c r="K381" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L381">
-        <v>4</v>
+        <v>1856</v>
       </c>
       <c r="M381">
         <v>28127</v>
@@ -17490,14 +17496,14 @@
       <c r="I382">
         <v>1</v>
       </c>
-      <c r="J382">
-        <v>3</v>
+      <c r="J382" t="s">
+        <v>107</v>
       </c>
       <c r="K382" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L382">
-        <v>4</v>
+        <v>2421</v>
       </c>
       <c r="M382">
         <v>28127</v>
@@ -17534,14 +17540,14 @@
       <c r="I383">
         <v>1</v>
       </c>
-      <c r="J383">
-        <v>3</v>
+      <c r="J383" t="s">
+        <v>107</v>
       </c>
       <c r="K383" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L383">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="M383">
         <v>28127</v>
@@ -17578,14 +17584,14 @@
       <c r="I384">
         <v>1</v>
       </c>
-      <c r="J384">
-        <v>3</v>
+      <c r="J384" t="s">
+        <v>107</v>
       </c>
       <c r="K384" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L384">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="M384">
         <v>28127</v>
@@ -17622,14 +17628,14 @@
       <c r="I385">
         <v>1</v>
       </c>
-      <c r="J385">
-        <v>3</v>
+      <c r="J385" t="s">
+        <v>107</v>
       </c>
       <c r="K385" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L385">
-        <v>4</v>
+        <v>1562</v>
       </c>
       <c r="M385">
         <v>28127</v>
@@ -17666,14 +17672,14 @@
       <c r="I386">
         <v>1</v>
       </c>
-      <c r="J386">
-        <v>3</v>
+      <c r="J386" t="s">
+        <v>106</v>
       </c>
       <c r="K386" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L386">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="M386">
         <v>28129</v>
@@ -17710,14 +17716,14 @@
       <c r="I387">
         <v>1</v>
       </c>
-      <c r="J387">
-        <v>3</v>
+      <c r="J387" t="s">
+        <v>106</v>
       </c>
       <c r="K387" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L387">
-        <v>4</v>
+        <v>713</v>
       </c>
       <c r="M387">
         <v>28129</v>
@@ -17754,14 +17760,14 @@
       <c r="I388">
         <v>1</v>
       </c>
-      <c r="J388">
-        <v>3</v>
+      <c r="J388" t="s">
+        <v>107</v>
       </c>
       <c r="K388" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L388">
-        <v>4</v>
+        <v>1821</v>
       </c>
       <c r="M388">
         <v>28129</v>
@@ -17798,14 +17804,14 @@
       <c r="I389">
         <v>1</v>
       </c>
-      <c r="J389">
-        <v>3</v>
+      <c r="J389" t="s">
+        <v>107</v>
       </c>
       <c r="K389" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L389">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="M389">
         <v>28129</v>
@@ -17842,14 +17848,14 @@
       <c r="I390">
         <v>1</v>
       </c>
-      <c r="J390">
-        <v>3</v>
+      <c r="J390" t="s">
+        <v>107</v>
       </c>
       <c r="K390" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L390">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="M390">
         <v>28129</v>
@@ -17886,14 +17892,14 @@
       <c r="I391">
         <v>1</v>
       </c>
-      <c r="J391">
-        <v>3</v>
+      <c r="J391" t="s">
+        <v>107</v>
       </c>
       <c r="K391" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L391">
-        <v>4</v>
+        <v>1183</v>
       </c>
       <c r="M391">
         <v>28129</v>
@@ -17930,14 +17936,14 @@
       <c r="I392">
         <v>1</v>
       </c>
-      <c r="J392">
-        <v>3</v>
+      <c r="J392" t="s">
+        <v>106</v>
       </c>
       <c r="K392" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L392">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="M392">
         <v>28131</v>
@@ -17974,14 +17980,14 @@
       <c r="I393">
         <v>1</v>
       </c>
-      <c r="J393">
-        <v>3</v>
+      <c r="J393" t="s">
+        <v>106</v>
       </c>
       <c r="K393" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L393">
-        <v>4</v>
+        <v>545</v>
       </c>
       <c r="M393">
         <v>28131</v>
@@ -18018,14 +18024,14 @@
       <c r="I394">
         <v>1</v>
       </c>
-      <c r="J394">
-        <v>3</v>
+      <c r="J394" t="s">
+        <v>107</v>
       </c>
       <c r="K394" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L394">
-        <v>4</v>
+        <v>1402</v>
       </c>
       <c r="M394">
         <v>28131</v>
@@ -18062,14 +18068,14 @@
       <c r="I395">
         <v>1</v>
       </c>
-      <c r="J395">
-        <v>3</v>
+      <c r="J395" t="s">
+        <v>107</v>
       </c>
       <c r="K395" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L395">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="M395">
         <v>28131</v>
@@ -18106,14 +18112,14 @@
       <c r="I396">
         <v>1</v>
       </c>
-      <c r="J396">
-        <v>3</v>
+      <c r="J396" t="s">
+        <v>107</v>
       </c>
       <c r="K396" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L396">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="M396">
         <v>28131</v>
@@ -18150,14 +18156,14 @@
       <c r="I397">
         <v>1</v>
       </c>
-      <c r="J397">
-        <v>3</v>
+      <c r="J397" t="s">
+        <v>107</v>
       </c>
       <c r="K397" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L397">
-        <v>4</v>
+        <v>1429</v>
       </c>
       <c r="M397">
         <v>28131</v>
@@ -18194,14 +18200,14 @@
       <c r="I398">
         <v>1</v>
       </c>
-      <c r="J398">
-        <v>3</v>
+      <c r="J398" t="s">
+        <v>106</v>
       </c>
       <c r="K398" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L398">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="M398">
         <v>28133</v>
@@ -18238,14 +18244,14 @@
       <c r="I399">
         <v>1</v>
       </c>
-      <c r="J399">
-        <v>3</v>
+      <c r="J399" t="s">
+        <v>106</v>
       </c>
       <c r="K399" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L399">
-        <v>4</v>
+        <v>2333</v>
       </c>
       <c r="M399">
         <v>28133</v>
@@ -18282,14 +18288,14 @@
       <c r="I400">
         <v>1</v>
       </c>
-      <c r="J400">
-        <v>3</v>
+      <c r="J400" t="s">
+        <v>107</v>
       </c>
       <c r="K400" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L400">
-        <v>4</v>
+        <v>898</v>
       </c>
       <c r="M400">
         <v>28133</v>
@@ -18326,14 +18332,14 @@
       <c r="I401">
         <v>1</v>
       </c>
-      <c r="J401">
-        <v>3</v>
+      <c r="J401" t="s">
+        <v>107</v>
       </c>
       <c r="K401" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L401">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="M401">
         <v>28133</v>
@@ -18370,14 +18376,14 @@
       <c r="I402">
         <v>1</v>
       </c>
-      <c r="J402">
-        <v>3</v>
+      <c r="J402" t="s">
+        <v>107</v>
       </c>
       <c r="K402" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L402">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="M402">
         <v>28133</v>
@@ -18414,14 +18420,14 @@
       <c r="I403">
         <v>1</v>
       </c>
-      <c r="J403">
-        <v>3</v>
+      <c r="J403" t="s">
+        <v>107</v>
       </c>
       <c r="K403" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L403">
-        <v>4</v>
+        <v>307</v>
       </c>
       <c r="M403">
         <v>28133</v>
@@ -18458,14 +18464,14 @@
       <c r="I404">
         <v>1</v>
       </c>
-      <c r="J404">
-        <v>3</v>
+      <c r="J404" t="s">
+        <v>106</v>
       </c>
       <c r="K404" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L404">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="M404">
         <v>28135</v>
@@ -18502,14 +18508,14 @@
       <c r="I405">
         <v>1</v>
       </c>
-      <c r="J405">
-        <v>3</v>
+      <c r="J405" t="s">
+        <v>106</v>
       </c>
       <c r="K405" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L405">
-        <v>4</v>
+        <v>1342</v>
       </c>
       <c r="M405">
         <v>28135</v>
@@ -18546,14 +18552,14 @@
       <c r="I406">
         <v>1</v>
       </c>
-      <c r="J406">
-        <v>3</v>
+      <c r="J406" t="s">
+        <v>107</v>
       </c>
       <c r="K406" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L406">
-        <v>4</v>
+        <v>770</v>
       </c>
       <c r="M406">
         <v>28135</v>
@@ -18590,14 +18596,14 @@
       <c r="I407">
         <v>1</v>
       </c>
-      <c r="J407">
-        <v>3</v>
+      <c r="J407" t="s">
+        <v>107</v>
       </c>
       <c r="K407" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L407">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="M407">
         <v>28135</v>
@@ -18634,14 +18640,14 @@
       <c r="I408">
         <v>1</v>
       </c>
-      <c r="J408">
-        <v>3</v>
+      <c r="J408" t="s">
+        <v>107</v>
       </c>
       <c r="K408" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L408">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="M408">
         <v>28135</v>
@@ -18678,14 +18684,14 @@
       <c r="I409">
         <v>1</v>
       </c>
-      <c r="J409">
-        <v>3</v>
+      <c r="J409" t="s">
+        <v>107</v>
       </c>
       <c r="K409" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L409">
-        <v>4</v>
+        <v>314</v>
       </c>
       <c r="M409">
         <v>28135</v>
@@ -18722,14 +18728,14 @@
       <c r="I410">
         <v>1</v>
       </c>
-      <c r="J410">
-        <v>3</v>
+      <c r="J410" t="s">
+        <v>106</v>
       </c>
       <c r="K410" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L410">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="M410">
         <v>28137</v>
@@ -18766,14 +18772,14 @@
       <c r="I411">
         <v>1</v>
       </c>
-      <c r="J411">
-        <v>3</v>
+      <c r="J411" t="s">
+        <v>106</v>
       </c>
       <c r="K411" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L411">
-        <v>4</v>
+        <v>1436</v>
       </c>
       <c r="M411">
         <v>28137</v>
@@ -18810,14 +18816,14 @@
       <c r="I412">
         <v>1</v>
       </c>
-      <c r="J412">
-        <v>3</v>
+      <c r="J412" t="s">
+        <v>107</v>
       </c>
       <c r="K412" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L412">
-        <v>4</v>
+        <v>1796</v>
       </c>
       <c r="M412">
         <v>28137</v>
@@ -18854,14 +18860,14 @@
       <c r="I413">
         <v>1</v>
       </c>
-      <c r="J413">
-        <v>3</v>
+      <c r="J413" t="s">
+        <v>107</v>
       </c>
       <c r="K413" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L413">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="M413">
         <v>28137</v>
@@ -18898,14 +18904,14 @@
       <c r="I414">
         <v>1</v>
       </c>
-      <c r="J414">
-        <v>3</v>
+      <c r="J414" t="s">
+        <v>107</v>
       </c>
       <c r="K414" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L414">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="M414">
         <v>28137</v>
@@ -18942,14 +18948,14 @@
       <c r="I415">
         <v>1</v>
       </c>
-      <c r="J415">
-        <v>3</v>
+      <c r="J415" t="s">
+        <v>107</v>
       </c>
       <c r="K415" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L415">
-        <v>4</v>
+        <v>2035</v>
       </c>
       <c r="M415">
         <v>28137</v>
@@ -18986,14 +18992,14 @@
       <c r="I416">
         <v>1</v>
       </c>
-      <c r="J416">
-        <v>3</v>
+      <c r="J416" t="s">
+        <v>106</v>
       </c>
       <c r="K416" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L416">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="M416">
         <v>28139</v>
@@ -19030,14 +19036,14 @@
       <c r="I417">
         <v>1</v>
       </c>
-      <c r="J417">
-        <v>3</v>
+      <c r="J417" t="s">
+        <v>106</v>
       </c>
       <c r="K417" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L417">
-        <v>4</v>
+        <v>576</v>
       </c>
       <c r="M417">
         <v>28139</v>
@@ -19074,14 +19080,14 @@
       <c r="I418">
         <v>1</v>
       </c>
-      <c r="J418">
-        <v>3</v>
+      <c r="J418" t="s">
+        <v>107</v>
       </c>
       <c r="K418" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L418">
-        <v>4</v>
+        <v>1952</v>
       </c>
       <c r="M418">
         <v>28139</v>
@@ -19118,14 +19124,14 @@
       <c r="I419">
         <v>1</v>
       </c>
-      <c r="J419">
-        <v>3</v>
+      <c r="J419" t="s">
+        <v>107</v>
       </c>
       <c r="K419" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L419">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="M419">
         <v>28139</v>
@@ -19162,14 +19168,14 @@
       <c r="I420">
         <v>1</v>
       </c>
-      <c r="J420">
-        <v>3</v>
+      <c r="J420" t="s">
+        <v>107</v>
       </c>
       <c r="K420" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L420">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="M420">
         <v>28139</v>
@@ -19206,14 +19212,14 @@
       <c r="I421">
         <v>1</v>
       </c>
-      <c r="J421">
-        <v>3</v>
+      <c r="J421" t="s">
+        <v>107</v>
       </c>
       <c r="K421" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L421">
-        <v>4</v>
+        <v>1552</v>
       </c>
       <c r="M421">
         <v>28139</v>
@@ -19250,14 +19256,14 @@
       <c r="I422">
         <v>1</v>
       </c>
-      <c r="J422">
-        <v>3</v>
+      <c r="J422" t="s">
+        <v>106</v>
       </c>
       <c r="K422" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L422">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="M422">
         <v>28141</v>
@@ -19294,14 +19300,14 @@
       <c r="I423">
         <v>1</v>
       </c>
-      <c r="J423">
-        <v>3</v>
+      <c r="J423" t="s">
+        <v>106</v>
       </c>
       <c r="K423" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L423">
-        <v>4</v>
+        <v>362</v>
       </c>
       <c r="M423">
         <v>28141</v>
@@ -19338,14 +19344,14 @@
       <c r="I424">
         <v>1</v>
       </c>
-      <c r="J424">
-        <v>3</v>
+      <c r="J424" t="s">
+        <v>107</v>
       </c>
       <c r="K424" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L424">
-        <v>4</v>
+        <v>1855</v>
       </c>
       <c r="M424">
         <v>28141</v>
@@ -19382,14 +19388,14 @@
       <c r="I425">
         <v>1</v>
       </c>
-      <c r="J425">
-        <v>3</v>
+      <c r="J425" t="s">
+        <v>107</v>
       </c>
       <c r="K425" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L425">
-        <v>4</v>
+        <v>223</v>
       </c>
       <c r="M425">
         <v>28141</v>
@@ -19426,14 +19432,14 @@
       <c r="I426">
         <v>1</v>
       </c>
-      <c r="J426">
-        <v>3</v>
+      <c r="J426" t="s">
+        <v>107</v>
       </c>
       <c r="K426" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L426">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="M426">
         <v>28141</v>
@@ -19470,14 +19476,14 @@
       <c r="I427">
         <v>1</v>
       </c>
-      <c r="J427">
-        <v>3</v>
+      <c r="J427" t="s">
+        <v>107</v>
       </c>
       <c r="K427" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L427">
-        <v>4</v>
+        <v>1229</v>
       </c>
       <c r="M427">
         <v>28141</v>
@@ -19514,14 +19520,14 @@
       <c r="I428">
         <v>1</v>
       </c>
-      <c r="J428">
-        <v>3</v>
+      <c r="J428" t="s">
+        <v>106</v>
       </c>
       <c r="K428" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L428">
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="M428">
         <v>28143</v>
@@ -19558,14 +19564,14 @@
       <c r="I429">
         <v>1</v>
       </c>
-      <c r="J429">
-        <v>3</v>
+      <c r="J429" t="s">
+        <v>106</v>
       </c>
       <c r="K429" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L429">
-        <v>4</v>
+        <v>905</v>
       </c>
       <c r="M429">
         <v>28143</v>
@@ -19602,14 +19608,14 @@
       <c r="I430">
         <v>1</v>
       </c>
-      <c r="J430">
-        <v>3</v>
+      <c r="J430" t="s">
+        <v>107</v>
       </c>
       <c r="K430" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L430">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="M430">
         <v>28143</v>
@@ -19646,14 +19652,14 @@
       <c r="I431">
         <v>1</v>
       </c>
-      <c r="J431">
-        <v>3</v>
+      <c r="J431" t="s">
+        <v>107</v>
       </c>
       <c r="K431" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L431">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M431">
         <v>28143</v>
@@ -19690,14 +19696,14 @@
       <c r="I432">
         <v>1</v>
       </c>
-      <c r="J432">
-        <v>3</v>
+      <c r="J432" t="s">
+        <v>107</v>
       </c>
       <c r="K432" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L432">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M432">
         <v>28143</v>
@@ -19734,14 +19740,14 @@
       <c r="I433">
         <v>1</v>
       </c>
-      <c r="J433">
-        <v>3</v>
+      <c r="J433" t="s">
+        <v>107</v>
       </c>
       <c r="K433" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L433">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="M433">
         <v>28143</v>
@@ -19778,14 +19784,14 @@
       <c r="I434">
         <v>1</v>
       </c>
-      <c r="J434">
-        <v>3</v>
+      <c r="J434" t="s">
+        <v>106</v>
       </c>
       <c r="K434" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L434">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="M434">
         <v>28145</v>
@@ -19822,14 +19828,14 @@
       <c r="I435">
         <v>1</v>
       </c>
-      <c r="J435">
-        <v>3</v>
+      <c r="J435" t="s">
+        <v>106</v>
       </c>
       <c r="K435" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L435">
-        <v>4</v>
+        <v>594</v>
       </c>
       <c r="M435">
         <v>28145</v>
@@ -19866,14 +19872,14 @@
       <c r="I436">
         <v>1</v>
       </c>
-      <c r="J436">
-        <v>3</v>
+      <c r="J436" t="s">
+        <v>107</v>
       </c>
       <c r="K436" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L436">
-        <v>4</v>
+        <v>2170</v>
       </c>
       <c r="M436">
         <v>28145</v>
@@ -19910,14 +19916,14 @@
       <c r="I437">
         <v>1</v>
       </c>
-      <c r="J437">
-        <v>3</v>
+      <c r="J437" t="s">
+        <v>107</v>
       </c>
       <c r="K437" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L437">
-        <v>4</v>
+        <v>319</v>
       </c>
       <c r="M437">
         <v>28145</v>
@@ -19954,14 +19960,14 @@
       <c r="I438">
         <v>1</v>
       </c>
-      <c r="J438">
-        <v>3</v>
+      <c r="J438" t="s">
+        <v>107</v>
       </c>
       <c r="K438" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L438">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="M438">
         <v>28145</v>
@@ -19998,14 +20004,14 @@
       <c r="I439">
         <v>1</v>
       </c>
-      <c r="J439">
-        <v>3</v>
+      <c r="J439" t="s">
+        <v>107</v>
       </c>
       <c r="K439" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L439">
-        <v>4</v>
+        <v>2114</v>
       </c>
       <c r="M439">
         <v>28145</v>
@@ -20042,14 +20048,14 @@
       <c r="I440">
         <v>1</v>
       </c>
-      <c r="J440">
-        <v>3</v>
+      <c r="J440" t="s">
+        <v>106</v>
       </c>
       <c r="K440" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L440">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="M440">
         <v>28147</v>
@@ -20086,14 +20092,14 @@
       <c r="I441">
         <v>1</v>
       </c>
-      <c r="J441">
-        <v>3</v>
+      <c r="J441" t="s">
+        <v>106</v>
       </c>
       <c r="K441" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L441">
-        <v>4</v>
+        <v>1112</v>
       </c>
       <c r="M441">
         <v>28147</v>
@@ -20130,14 +20136,14 @@
       <c r="I442">
         <v>1</v>
       </c>
-      <c r="J442">
-        <v>3</v>
+      <c r="J442" t="s">
+        <v>107</v>
       </c>
       <c r="K442" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L442">
-        <v>4</v>
+        <v>1144</v>
       </c>
       <c r="M442">
         <v>28147</v>
@@ -20174,14 +20180,14 @@
       <c r="I443">
         <v>1</v>
       </c>
-      <c r="J443">
-        <v>3</v>
+      <c r="J443" t="s">
+        <v>107</v>
       </c>
       <c r="K443" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L443">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="M443">
         <v>28147</v>
@@ -20218,14 +20224,14 @@
       <c r="I444">
         <v>1</v>
       </c>
-      <c r="J444">
-        <v>3</v>
+      <c r="J444" t="s">
+        <v>107</v>
       </c>
       <c r="K444" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L444">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="M444">
         <v>28147</v>
@@ -20262,14 +20268,14 @@
       <c r="I445">
         <v>1</v>
       </c>
-      <c r="J445">
-        <v>3</v>
+      <c r="J445" t="s">
+        <v>107</v>
       </c>
       <c r="K445" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L445">
-        <v>4</v>
+        <v>599</v>
       </c>
       <c r="M445">
         <v>28147</v>
@@ -20306,14 +20312,14 @@
       <c r="I446">
         <v>1</v>
       </c>
-      <c r="J446">
-        <v>3</v>
+      <c r="J446" t="s">
+        <v>106</v>
       </c>
       <c r="K446" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L446">
-        <v>4</v>
+        <v>613</v>
       </c>
       <c r="M446">
         <v>28149</v>
@@ -20350,14 +20356,14 @@
       <c r="I447">
         <v>1</v>
       </c>
-      <c r="J447">
-        <v>3</v>
+      <c r="J447" t="s">
+        <v>106</v>
       </c>
       <c r="K447" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L447">
-        <v>4</v>
+        <v>3464</v>
       </c>
       <c r="M447">
         <v>28149</v>
@@ -20394,14 +20400,14 @@
       <c r="I448">
         <v>1</v>
       </c>
-      <c r="J448">
-        <v>3</v>
+      <c r="J448" t="s">
+        <v>107</v>
       </c>
       <c r="K448" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L448">
-        <v>4</v>
+        <v>2988</v>
       </c>
       <c r="M448">
         <v>28149</v>
@@ -20438,14 +20444,14 @@
       <c r="I449">
         <v>1</v>
       </c>
-      <c r="J449">
-        <v>3</v>
+      <c r="J449" t="s">
+        <v>107</v>
       </c>
       <c r="K449" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L449">
-        <v>4</v>
+        <v>657</v>
       </c>
       <c r="M449">
         <v>28149</v>
@@ -20482,14 +20488,14 @@
       <c r="I450">
         <v>1</v>
       </c>
-      <c r="J450">
-        <v>3</v>
+      <c r="J450" t="s">
+        <v>107</v>
       </c>
       <c r="K450" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L450">
-        <v>4</v>
+        <v>365</v>
       </c>
       <c r="M450">
         <v>28149</v>
@@ -20526,14 +20532,14 @@
       <c r="I451">
         <v>1</v>
       </c>
-      <c r="J451">
-        <v>3</v>
+      <c r="J451" t="s">
+        <v>107</v>
       </c>
       <c r="K451" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L451">
-        <v>4</v>
+        <v>1825</v>
       </c>
       <c r="M451">
         <v>28149</v>
@@ -20570,14 +20576,14 @@
       <c r="I452">
         <v>1</v>
       </c>
-      <c r="J452">
-        <v>3</v>
+      <c r="J452" t="s">
+        <v>106</v>
       </c>
       <c r="K452" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L452">
-        <v>4</v>
+        <v>410</v>
       </c>
       <c r="M452">
         <v>28151</v>
@@ -20614,14 +20620,14 @@
       <c r="I453">
         <v>1</v>
       </c>
-      <c r="J453">
-        <v>3</v>
+      <c r="J453" t="s">
+        <v>106</v>
       </c>
       <c r="K453" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L453">
-        <v>4</v>
+        <v>2983</v>
       </c>
       <c r="M453">
         <v>28151</v>
@@ -20658,14 +20664,14 @@
       <c r="I454">
         <v>1</v>
       </c>
-      <c r="J454">
-        <v>3</v>
+      <c r="J454" t="s">
+        <v>107</v>
       </c>
       <c r="K454" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L454">
-        <v>4</v>
+        <v>1350</v>
       </c>
       <c r="M454">
         <v>28151</v>
@@ -20702,14 +20708,14 @@
       <c r="I455">
         <v>1</v>
       </c>
-      <c r="J455">
-        <v>3</v>
+      <c r="J455" t="s">
+        <v>107</v>
       </c>
       <c r="K455" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L455">
-        <v>4</v>
+        <v>322</v>
       </c>
       <c r="M455">
         <v>28151</v>
@@ -20746,14 +20752,14 @@
       <c r="I456">
         <v>1</v>
       </c>
-      <c r="J456">
-        <v>3</v>
+      <c r="J456" t="s">
+        <v>107</v>
       </c>
       <c r="K456" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L456">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="M456">
         <v>28151</v>
@@ -20790,14 +20796,14 @@
       <c r="I457">
         <v>1</v>
       </c>
-      <c r="J457">
-        <v>3</v>
+      <c r="J457" t="s">
+        <v>107</v>
       </c>
       <c r="K457" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L457">
-        <v>4</v>
+        <v>616</v>
       </c>
       <c r="M457">
         <v>28151</v>
@@ -20834,14 +20840,14 @@
       <c r="I458">
         <v>1</v>
       </c>
-      <c r="J458">
-        <v>3</v>
+      <c r="J458" t="s">
+        <v>106</v>
       </c>
       <c r="K458" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L458">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="M458">
         <v>28153</v>
@@ -20878,14 +20884,14 @@
       <c r="I459">
         <v>1</v>
       </c>
-      <c r="J459">
-        <v>3</v>
+      <c r="J459" t="s">
+        <v>106</v>
       </c>
       <c r="K459" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L459">
-        <v>4</v>
+        <v>1442</v>
       </c>
       <c r="M459">
         <v>28153</v>
@@ -20922,14 +20928,14 @@
       <c r="I460">
         <v>1</v>
       </c>
-      <c r="J460">
-        <v>3</v>
+      <c r="J460" t="s">
+        <v>107</v>
       </c>
       <c r="K460" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L460">
-        <v>4</v>
+        <v>1736</v>
       </c>
       <c r="M460">
         <v>28153</v>
@@ -20966,14 +20972,14 @@
       <c r="I461">
         <v>1</v>
       </c>
-      <c r="J461">
-        <v>3</v>
+      <c r="J461" t="s">
+        <v>107</v>
       </c>
       <c r="K461" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L461">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="M461">
         <v>28153</v>
@@ -21010,14 +21016,14 @@
       <c r="I462">
         <v>1</v>
       </c>
-      <c r="J462">
-        <v>3</v>
+      <c r="J462" t="s">
+        <v>107</v>
       </c>
       <c r="K462" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L462">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="M462">
         <v>28153</v>
@@ -21054,14 +21060,14 @@
       <c r="I463">
         <v>1</v>
       </c>
-      <c r="J463">
-        <v>3</v>
+      <c r="J463" t="s">
+        <v>107</v>
       </c>
       <c r="K463" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L463">
-        <v>4</v>
+        <v>1307</v>
       </c>
       <c r="M463">
         <v>28153</v>
@@ -21098,14 +21104,14 @@
       <c r="I464">
         <v>1</v>
       </c>
-      <c r="J464">
-        <v>3</v>
+      <c r="J464" t="s">
+        <v>106</v>
       </c>
       <c r="K464" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L464">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="M464">
         <v>28155</v>
@@ -21142,14 +21148,14 @@
       <c r="I465">
         <v>1</v>
       </c>
-      <c r="J465">
-        <v>3</v>
+      <c r="J465" t="s">
+        <v>106</v>
       </c>
       <c r="K465" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L465">
-        <v>4</v>
+        <v>398</v>
       </c>
       <c r="M465">
         <v>28155</v>
@@ -21186,14 +21192,14 @@
       <c r="I466">
         <v>1</v>
       </c>
-      <c r="J466">
-        <v>3</v>
+      <c r="J466" t="s">
+        <v>107</v>
       </c>
       <c r="K466" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L466">
-        <v>4</v>
+        <v>1192</v>
       </c>
       <c r="M466">
         <v>28155</v>
@@ -21230,14 +21236,14 @@
       <c r="I467">
         <v>1</v>
       </c>
-      <c r="J467">
-        <v>3</v>
+      <c r="J467" t="s">
+        <v>107</v>
       </c>
       <c r="K467" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L467">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="M467">
         <v>28155</v>
@@ -21274,14 +21280,14 @@
       <c r="I468">
         <v>1</v>
       </c>
-      <c r="J468">
-        <v>3</v>
+      <c r="J468" t="s">
+        <v>107</v>
       </c>
       <c r="K468" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L468">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="M468">
         <v>28155</v>
@@ -21318,14 +21324,14 @@
       <c r="I469">
         <v>1</v>
       </c>
-      <c r="J469">
-        <v>3</v>
+      <c r="J469" t="s">
+        <v>107</v>
       </c>
       <c r="K469" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L469">
-        <v>4</v>
+        <v>885</v>
       </c>
       <c r="M469">
         <v>28155</v>
@@ -21362,14 +21368,14 @@
       <c r="I470">
         <v>1</v>
       </c>
-      <c r="J470">
-        <v>3</v>
+      <c r="J470" t="s">
+        <v>106</v>
       </c>
       <c r="K470" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L470">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="M470">
         <v>28157</v>
@@ -21406,14 +21412,14 @@
       <c r="I471">
         <v>1</v>
       </c>
-      <c r="J471">
-        <v>3</v>
+      <c r="J471" t="s">
+        <v>106</v>
       </c>
       <c r="K471" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L471">
-        <v>4</v>
+        <v>1270</v>
       </c>
       <c r="M471">
         <v>28157</v>
@@ -21450,14 +21456,14 @@
       <c r="I472">
         <v>1</v>
       </c>
-      <c r="J472">
-        <v>3</v>
+      <c r="J472" t="s">
+        <v>107</v>
       </c>
       <c r="K472" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L472">
-        <v>4</v>
+        <v>365</v>
       </c>
       <c r="M472">
         <v>28157</v>
@@ -21494,14 +21500,14 @@
       <c r="I473">
         <v>1</v>
       </c>
-      <c r="J473">
-        <v>3</v>
+      <c r="J473" t="s">
+        <v>107</v>
       </c>
       <c r="K473" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L473">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M473">
         <v>28157</v>
@@ -21538,14 +21544,14 @@
       <c r="I474">
         <v>1</v>
       </c>
-      <c r="J474">
-        <v>3</v>
+      <c r="J474" t="s">
+        <v>107</v>
       </c>
       <c r="K474" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L474">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M474">
         <v>28157</v>
@@ -21582,14 +21588,14 @@
       <c r="I475">
         <v>1</v>
       </c>
-      <c r="J475">
-        <v>3</v>
+      <c r="J475" t="s">
+        <v>107</v>
       </c>
       <c r="K475" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L475">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="M475">
         <v>28157</v>
@@ -21626,14 +21632,14 @@
       <c r="I476">
         <v>1</v>
       </c>
-      <c r="J476">
-        <v>3</v>
+      <c r="J476" t="s">
+        <v>106</v>
       </c>
       <c r="K476" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L476">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="M476">
         <v>28159</v>
@@ -21670,14 +21676,14 @@
       <c r="I477">
         <v>1</v>
       </c>
-      <c r="J477">
-        <v>3</v>
+      <c r="J477" t="s">
+        <v>106</v>
       </c>
       <c r="K477" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L477">
-        <v>4</v>
+        <v>1443</v>
       </c>
       <c r="M477">
         <v>28159</v>
@@ -21714,14 +21720,14 @@
       <c r="I478">
         <v>1</v>
       </c>
-      <c r="J478">
-        <v>3</v>
+      <c r="J478" t="s">
+        <v>107</v>
       </c>
       <c r="K478" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L478">
-        <v>4</v>
+        <v>1157</v>
       </c>
       <c r="M478">
         <v>28159</v>
@@ -21758,14 +21764,14 @@
       <c r="I479">
         <v>1</v>
       </c>
-      <c r="J479">
-        <v>3</v>
+      <c r="J479" t="s">
+        <v>107</v>
       </c>
       <c r="K479" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L479">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="M479">
         <v>28159</v>
@@ -21802,14 +21808,14 @@
       <c r="I480">
         <v>1</v>
       </c>
-      <c r="J480">
-        <v>3</v>
+      <c r="J480" t="s">
+        <v>107</v>
       </c>
       <c r="K480" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L480">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="M480">
         <v>28159</v>
@@ -21846,14 +21852,14 @@
       <c r="I481">
         <v>1</v>
       </c>
-      <c r="J481">
-        <v>3</v>
+      <c r="J481" t="s">
+        <v>107</v>
       </c>
       <c r="K481" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L481">
-        <v>4</v>
+        <v>942</v>
       </c>
       <c r="M481">
         <v>28159</v>
@@ -21890,14 +21896,14 @@
       <c r="I482">
         <v>1</v>
       </c>
-      <c r="J482">
-        <v>3</v>
+      <c r="J482" t="s">
+        <v>106</v>
       </c>
       <c r="K482" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L482">
-        <v>4</v>
+        <v>216</v>
       </c>
       <c r="M482">
         <v>28161</v>
@@ -21934,14 +21940,14 @@
       <c r="I483">
         <v>1</v>
       </c>
-      <c r="J483">
-        <v>3</v>
+      <c r="J483" t="s">
+        <v>106</v>
       </c>
       <c r="K483" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L483">
-        <v>4</v>
+        <v>1215</v>
       </c>
       <c r="M483">
         <v>28161</v>
@@ -21978,14 +21984,14 @@
       <c r="I484">
         <v>1</v>
       </c>
-      <c r="J484">
-        <v>3</v>
+      <c r="J484" t="s">
+        <v>107</v>
       </c>
       <c r="K484" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L484">
-        <v>4</v>
+        <v>1030</v>
       </c>
       <c r="M484">
         <v>28161</v>
@@ -22022,14 +22028,14 @@
       <c r="I485">
         <v>1</v>
       </c>
-      <c r="J485">
-        <v>3</v>
+      <c r="J485" t="s">
+        <v>107</v>
       </c>
       <c r="K485" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L485">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="M485">
         <v>28161</v>
@@ -22066,14 +22072,14 @@
       <c r="I486">
         <v>1</v>
       </c>
-      <c r="J486">
-        <v>3</v>
+      <c r="J486" t="s">
+        <v>107</v>
       </c>
       <c r="K486" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L486">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="M486">
         <v>28161</v>
@@ -22110,14 +22116,14 @@
       <c r="I487">
         <v>1</v>
       </c>
-      <c r="J487">
-        <v>3</v>
+      <c r="J487" t="s">
+        <v>107</v>
       </c>
       <c r="K487" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L487">
-        <v>4</v>
+        <v>613</v>
       </c>
       <c r="M487">
         <v>28161</v>
@@ -22154,14 +22160,14 @@
       <c r="I488">
         <v>1</v>
       </c>
-      <c r="J488">
-        <v>3</v>
+      <c r="J488" t="s">
+        <v>106</v>
       </c>
       <c r="K488" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L488">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="M488">
         <v>28163</v>
@@ -22198,14 +22204,14 @@
       <c r="I489">
         <v>1</v>
       </c>
-      <c r="J489">
-        <v>3</v>
+      <c r="J489" t="s">
+        <v>106</v>
       </c>
       <c r="K489" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L489">
-        <v>4</v>
+        <v>2204</v>
       </c>
       <c r="M489">
         <v>28163</v>
@@ -22242,14 +22248,14 @@
       <c r="I490">
         <v>1</v>
       </c>
-      <c r="J490">
-        <v>3</v>
+      <c r="J490" t="s">
+        <v>107</v>
       </c>
       <c r="K490" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L490">
-        <v>4</v>
+        <v>1511</v>
       </c>
       <c r="M490">
         <v>28163</v>
@@ -22286,14 +22292,14 @@
       <c r="I491">
         <v>1</v>
       </c>
-      <c r="J491">
-        <v>3</v>
+      <c r="J491" t="s">
+        <v>107</v>
       </c>
       <c r="K491" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L491">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="M491">
         <v>28163</v>
@@ -22330,14 +22336,14 @@
       <c r="I492">
         <v>1</v>
       </c>
-      <c r="J492">
-        <v>3</v>
+      <c r="J492" t="s">
+        <v>107</v>
       </c>
       <c r="K492" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L492">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="M492">
         <v>28163</v>
@@ -22374,14 +22380,14 @@
       <c r="I493">
         <v>1</v>
       </c>
-      <c r="J493">
-        <v>3</v>
+      <c r="J493" t="s">
+        <v>107</v>
       </c>
       <c r="K493" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L493">
-        <v>4</v>
+        <v>843</v>
       </c>
       <c r="M493">
         <v>28163</v>
